--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_0_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_0_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1073697.45260244</v>
+        <v>411708.2733842023</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20545356.87640059</v>
+        <v>26497645.95168369</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6169756.057979653</v>
+        <v>4275904.322764322</v>
       </c>
     </row>
     <row r="11">
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>25.55180281510271</v>
+        <v>26.5020402977388</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>24.96830135520742</v>
+        <v>26.5020402977388</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>24.79834527124302</v>
+        <v>26.5020402977388</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23270,49 +23270,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G11" t="n">
-        <v>424.3703131815284</v>
+        <v>425.736339456763</v>
       </c>
       <c r="H11" t="n">
-        <v>350.9157199772197</v>
+        <v>364.9055365684662</v>
       </c>
       <c r="I11" t="n">
-        <v>259.5820224797425</v>
+        <v>312.245750455725</v>
       </c>
       <c r="J11" t="n">
-        <v>113.2719205263841</v>
+        <v>229.2116931040779</v>
       </c>
       <c r="K11" t="n">
-        <v>86.48232478941668</v>
+        <v>260.2459895977917</v>
       </c>
       <c r="L11" t="n">
-        <v>46.71789743482168</v>
+        <v>262.287088863908</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>239.8622612012899</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>236.1703130370088</v>
       </c>
       <c r="O11" t="n">
-        <v>14.7375564088087</v>
+        <v>244.8976159902447</v>
       </c>
       <c r="P11" t="n">
-        <v>69.20859413233046</v>
+        <v>265.6448800439119</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0441994252908</v>
+        <v>278.5596693550327</v>
       </c>
       <c r="R11" t="n">
-        <v>216.4193954842993</v>
+        <v>302.2280434960056</v>
       </c>
       <c r="S11" t="n">
-        <v>239.3212844932483</v>
+        <v>270.449608240157</v>
       </c>
       <c r="T11" t="n">
-        <v>217.0325233056941</v>
+        <v>223.0123033255337</v>
       </c>
       <c r="U11" t="n">
-        <v>247.8723480208417</v>
+        <v>247.9816301228604</v>
       </c>
       <c r="V11" t="n">
         <v>308.2281821605244</v>
@@ -23349,49 +23349,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>169.21061655708</v>
+        <v>169.9415050495322</v>
       </c>
       <c r="H12" t="n">
-        <v>145.5431130523186</v>
+        <v>152.601957176791</v>
       </c>
       <c r="I12" t="n">
-        <v>122.4540854883441</v>
+        <v>147.6184480574213</v>
       </c>
       <c r="J12" t="n">
-        <v>98.35185998134867</v>
+        <v>167.4047942616663</v>
       </c>
       <c r="K12" t="n">
-        <v>39.81455943866638</v>
+        <v>157.8370227132801</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>136.1968812181101</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>127.1626992382137</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>106.8777639793056</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>134.2441598334879</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>139.4763417691797</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.8770407665705</v>
+        <v>175.1743156978348</v>
       </c>
       <c r="R12" t="n">
-        <v>165.9135208004222</v>
+        <v>211.2927203581111</v>
       </c>
       <c r="S12" t="n">
-        <v>218.5364288523852</v>
+        <v>232.1123620345562</v>
       </c>
       <c r="T12" t="n">
-        <v>240.1223324772803</v>
+        <v>243.0683260060678</v>
       </c>
       <c r="U12" t="n">
-        <v>257.9714696252922</v>
+        <v>258.0195543945325</v>
       </c>
       <c r="V12" t="n">
         <v>255.0969898936781</v>
@@ -23428,49 +23428,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>169.5695206702212</v>
+        <v>170.1822730301574</v>
       </c>
       <c r="H13" t="n">
-        <v>168.553025240772</v>
+        <v>174.0009507682046</v>
       </c>
       <c r="I13" t="n">
-        <v>168.992553034598</v>
+        <v>187.4196876406788</v>
       </c>
       <c r="J13" t="n">
-        <v>138.7628484707558</v>
+        <v>182.0844403182438</v>
       </c>
       <c r="K13" t="n">
-        <v>98.55123640234183</v>
+        <v>169.7419196749273</v>
       </c>
       <c r="L13" t="n">
-        <v>77.02385333317633</v>
+        <v>168.1234178276884</v>
       </c>
       <c r="M13" t="n">
-        <v>75.86266198249908</v>
+        <v>171.9143796404953</v>
       </c>
       <c r="N13" t="n">
-        <v>61.16136330339108</v>
+        <v>154.9291858016253</v>
       </c>
       <c r="O13" t="n">
-        <v>89.83460966937352</v>
+        <v>176.4443705083532</v>
       </c>
       <c r="P13" t="n">
-        <v>108.1576169638986</v>
+        <v>182.2672296601801</v>
       </c>
       <c r="Q13" t="n">
-        <v>166.1252925040833</v>
+        <v>217.4349469347395</v>
       </c>
       <c r="R13" t="n">
-        <v>231.8543828110549</v>
+        <v>259.4059571041854</v>
       </c>
       <c r="S13" t="n">
-        <v>248.8320787069986</v>
+        <v>259.5106811978864</v>
       </c>
       <c r="T13" t="n">
-        <v>214.188010651332</v>
+        <v>216.8061343710593</v>
       </c>
       <c r="U13" t="n">
-        <v>292.9358460705017</v>
+        <v>292.9692689264983</v>
       </c>
       <c r="V13" t="n">
         <v>232.1699497460494</v>
@@ -23507,49 +23507,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G14" t="n">
-        <v>424.3703131815284</v>
+        <v>425.736339456763</v>
       </c>
       <c r="H14" t="n">
-        <v>350.9157199772197</v>
+        <v>364.9055365684662</v>
       </c>
       <c r="I14" t="n">
-        <v>259.5820224797425</v>
+        <v>312.2457504557249</v>
       </c>
       <c r="J14" t="n">
-        <v>113.2719205263841</v>
+        <v>229.2116931040779</v>
       </c>
       <c r="K14" t="n">
-        <v>86.48232478941668</v>
+        <v>260.2459895977917</v>
       </c>
       <c r="L14" t="n">
-        <v>46.71789743482168</v>
+        <v>262.287088863908</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>239.8622612012899</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>236.1703130370088</v>
       </c>
       <c r="O14" t="n">
-        <v>14.7375564088087</v>
+        <v>244.8976159902447</v>
       </c>
       <c r="P14" t="n">
-        <v>69.20859413233046</v>
+        <v>265.6448800439119</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0441994252908</v>
+        <v>278.5596693550327</v>
       </c>
       <c r="R14" t="n">
-        <v>216.4193954842993</v>
+        <v>302.2280434960056</v>
       </c>
       <c r="S14" t="n">
-        <v>239.3212844932483</v>
+        <v>270.449608240157</v>
       </c>
       <c r="T14" t="n">
-        <v>217.0325233056941</v>
+        <v>223.0123033255336</v>
       </c>
       <c r="U14" t="n">
-        <v>247.8723480208417</v>
+        <v>247.9816301228604</v>
       </c>
       <c r="V14" t="n">
         <v>308.2281821605244</v>
@@ -23586,49 +23586,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>169.21061655708</v>
+        <v>169.9415050495322</v>
       </c>
       <c r="H15" t="n">
-        <v>145.5431130523186</v>
+        <v>152.601957176791</v>
       </c>
       <c r="I15" t="n">
-        <v>122.4540854883441</v>
+        <v>147.6184480574213</v>
       </c>
       <c r="J15" t="n">
-        <v>98.35185998134867</v>
+        <v>167.4047942616663</v>
       </c>
       <c r="K15" t="n">
-        <v>39.81455943866638</v>
+        <v>157.8370227132801</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>136.1968812181101</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>127.1626992382137</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>106.8777639793056</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>134.2441598334879</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>139.4763417691797</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.8770407665705</v>
+        <v>175.1743156978348</v>
       </c>
       <c r="R15" t="n">
-        <v>165.9135208004222</v>
+        <v>211.2927203581111</v>
       </c>
       <c r="S15" t="n">
-        <v>218.5364288523852</v>
+        <v>232.1123620345562</v>
       </c>
       <c r="T15" t="n">
-        <v>240.1223324772803</v>
+        <v>243.0683260060678</v>
       </c>
       <c r="U15" t="n">
-        <v>257.9714696252922</v>
+        <v>258.0195543945325</v>
       </c>
       <c r="V15" t="n">
         <v>255.0969898936781</v>
@@ -23665,49 +23665,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>169.5695206702212</v>
+        <v>170.1822730301574</v>
       </c>
       <c r="H16" t="n">
-        <v>168.553025240772</v>
+        <v>174.0009507682046</v>
       </c>
       <c r="I16" t="n">
-        <v>168.992553034598</v>
+        <v>187.4196876406788</v>
       </c>
       <c r="J16" t="n">
-        <v>138.7628484707558</v>
+        <v>182.0844403182438</v>
       </c>
       <c r="K16" t="n">
-        <v>98.55123640234183</v>
+        <v>169.7419196749273</v>
       </c>
       <c r="L16" t="n">
-        <v>77.02385333317633</v>
+        <v>168.1234178276884</v>
       </c>
       <c r="M16" t="n">
-        <v>75.86266198249908</v>
+        <v>171.9143796404953</v>
       </c>
       <c r="N16" t="n">
-        <v>61.16136330339108</v>
+        <v>154.9291858016253</v>
       </c>
       <c r="O16" t="n">
-        <v>89.83460966937352</v>
+        <v>176.4443705083532</v>
       </c>
       <c r="P16" t="n">
-        <v>108.1576169638986</v>
+        <v>182.2672296601801</v>
       </c>
       <c r="Q16" t="n">
-        <v>166.1252925040833</v>
+        <v>217.4349469347395</v>
       </c>
       <c r="R16" t="n">
-        <v>231.8543828110549</v>
+        <v>259.4059571041854</v>
       </c>
       <c r="S16" t="n">
-        <v>248.8320787069986</v>
+        <v>259.5106811978864</v>
       </c>
       <c r="T16" t="n">
-        <v>214.188010651332</v>
+        <v>216.8061343710593</v>
       </c>
       <c r="U16" t="n">
-        <v>292.9358460705017</v>
+        <v>292.9692689264983</v>
       </c>
       <c r="V16" t="n">
         <v>232.1699497460494</v>
@@ -23744,49 +23744,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G17" t="n">
-        <v>424.3703131815284</v>
+        <v>425.736339456763</v>
       </c>
       <c r="H17" t="n">
-        <v>350.9157199772197</v>
+        <v>364.9055365684662</v>
       </c>
       <c r="I17" t="n">
-        <v>259.5820224797425</v>
+        <v>312.2457504557249</v>
       </c>
       <c r="J17" t="n">
-        <v>113.271920526384</v>
+        <v>229.2116931040779</v>
       </c>
       <c r="K17" t="n">
-        <v>86.48232478941668</v>
+        <v>260.2459895977917</v>
       </c>
       <c r="L17" t="n">
-        <v>46.71789743482162</v>
+        <v>262.287088863908</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>239.8622612012899</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>236.1703130370088</v>
       </c>
       <c r="O17" t="n">
-        <v>14.73755640880864</v>
+        <v>244.8976159902447</v>
       </c>
       <c r="P17" t="n">
-        <v>69.20859413233046</v>
+        <v>265.6448800439119</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.0441994252908</v>
+        <v>278.5596693550327</v>
       </c>
       <c r="R17" t="n">
-        <v>216.4193954842993</v>
+        <v>302.2280434960056</v>
       </c>
       <c r="S17" t="n">
-        <v>239.3212844932483</v>
+        <v>270.449608240157</v>
       </c>
       <c r="T17" t="n">
-        <v>217.0325233056941</v>
+        <v>223.0123033255336</v>
       </c>
       <c r="U17" t="n">
-        <v>247.8723480208417</v>
+        <v>247.9816301228604</v>
       </c>
       <c r="V17" t="n">
         <v>308.2281821605244</v>
@@ -23823,49 +23823,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>169.21061655708</v>
+        <v>169.9415050495322</v>
       </c>
       <c r="H18" t="n">
-        <v>145.5431130523186</v>
+        <v>152.601957176791</v>
       </c>
       <c r="I18" t="n">
-        <v>122.4540854883441</v>
+        <v>147.6184480574213</v>
       </c>
       <c r="J18" t="n">
-        <v>98.35185998134865</v>
+        <v>167.4047942616663</v>
       </c>
       <c r="K18" t="n">
-        <v>39.81455943866638</v>
+        <v>157.8370227132801</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>136.1968812181101</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>127.1626992382137</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>106.8777639793056</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>134.2441598334879</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>139.4763417691797</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.87704076657047</v>
+        <v>175.1743156978348</v>
       </c>
       <c r="R18" t="n">
-        <v>165.9135208004222</v>
+        <v>211.2927203581111</v>
       </c>
       <c r="S18" t="n">
-        <v>218.5364288523852</v>
+        <v>232.1123620345562</v>
       </c>
       <c r="T18" t="n">
-        <v>240.1223324772803</v>
+        <v>243.0683260060678</v>
       </c>
       <c r="U18" t="n">
-        <v>257.9714696252922</v>
+        <v>258.0195543945325</v>
       </c>
       <c r="V18" t="n">
         <v>255.0969898936781</v>
@@ -23902,49 +23902,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>169.5695206702212</v>
+        <v>170.1822730301574</v>
       </c>
       <c r="H19" t="n">
-        <v>168.553025240772</v>
+        <v>174.0009507682046</v>
       </c>
       <c r="I19" t="n">
-        <v>168.992553034598</v>
+        <v>187.4196876406788</v>
       </c>
       <c r="J19" t="n">
-        <v>138.7628484707558</v>
+        <v>182.0844403182438</v>
       </c>
       <c r="K19" t="n">
-        <v>98.55123640234183</v>
+        <v>169.7419196749273</v>
       </c>
       <c r="L19" t="n">
-        <v>77.02385333317633</v>
+        <v>168.1234178276884</v>
       </c>
       <c r="M19" t="n">
-        <v>75.86266198249905</v>
+        <v>171.9143796404953</v>
       </c>
       <c r="N19" t="n">
-        <v>61.16136330339108</v>
+        <v>154.9291858016253</v>
       </c>
       <c r="O19" t="n">
-        <v>89.83460966937352</v>
+        <v>176.4443705083532</v>
       </c>
       <c r="P19" t="n">
-        <v>108.1576169638986</v>
+        <v>182.2672296601801</v>
       </c>
       <c r="Q19" t="n">
-        <v>166.1252925040833</v>
+        <v>217.4349469347395</v>
       </c>
       <c r="R19" t="n">
-        <v>231.8543828110549</v>
+        <v>259.4059571041854</v>
       </c>
       <c r="S19" t="n">
-        <v>248.8320787069986</v>
+        <v>259.5106811978864</v>
       </c>
       <c r="T19" t="n">
-        <v>214.188010651332</v>
+        <v>216.8061343710593</v>
       </c>
       <c r="U19" t="n">
-        <v>292.9358460705017</v>
+        <v>292.9692689264983</v>
       </c>
       <c r="V19" t="n">
         <v>232.1699497460494</v>
@@ -23981,49 +23981,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G20" t="n">
-        <v>424.3703131815284</v>
+        <v>425.736339456763</v>
       </c>
       <c r="H20" t="n">
-        <v>350.9157199772197</v>
+        <v>364.9055365684662</v>
       </c>
       <c r="I20" t="n">
-        <v>259.5820224797425</v>
+        <v>312.2457504557249</v>
       </c>
       <c r="J20" t="n">
-        <v>113.2719205263841</v>
+        <v>229.2116931040779</v>
       </c>
       <c r="K20" t="n">
-        <v>86.48232478941668</v>
+        <v>260.2459895977917</v>
       </c>
       <c r="L20" t="n">
-        <v>46.71789743482168</v>
+        <v>262.287088863908</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>239.8622612012899</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>236.1703130370088</v>
       </c>
       <c r="O20" t="n">
-        <v>14.7375564088087</v>
+        <v>244.8976159902447</v>
       </c>
       <c r="P20" t="n">
-        <v>69.20859413233046</v>
+        <v>265.6448800439119</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0441994252908</v>
+        <v>278.5596693550327</v>
       </c>
       <c r="R20" t="n">
-        <v>216.4193954842993</v>
+        <v>302.2280434960056</v>
       </c>
       <c r="S20" t="n">
-        <v>239.3212844932483</v>
+        <v>270.449608240157</v>
       </c>
       <c r="T20" t="n">
-        <v>217.0325233056941</v>
+        <v>223.0123033255336</v>
       </c>
       <c r="U20" t="n">
-        <v>247.8723480208417</v>
+        <v>247.9816301228604</v>
       </c>
       <c r="V20" t="n">
         <v>308.2281821605244</v>
@@ -24060,49 +24060,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>169.21061655708</v>
+        <v>169.9415050495322</v>
       </c>
       <c r="H21" t="n">
-        <v>145.5431130523186</v>
+        <v>152.601957176791</v>
       </c>
       <c r="I21" t="n">
-        <v>122.4540854883441</v>
+        <v>147.6184480574213</v>
       </c>
       <c r="J21" t="n">
-        <v>98.35185998134867</v>
+        <v>167.4047942616663</v>
       </c>
       <c r="K21" t="n">
-        <v>39.81455943866638</v>
+        <v>157.8370227132801</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>136.1968812181101</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>127.1626992382137</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>106.8777639793056</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>134.2441598334879</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>139.4763417691797</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.8770407665705</v>
+        <v>175.1743156978348</v>
       </c>
       <c r="R21" t="n">
-        <v>165.9135208004222</v>
+        <v>211.2927203581111</v>
       </c>
       <c r="S21" t="n">
-        <v>218.5364288523852</v>
+        <v>232.1123620345562</v>
       </c>
       <c r="T21" t="n">
-        <v>240.1223324772803</v>
+        <v>243.0683260060678</v>
       </c>
       <c r="U21" t="n">
-        <v>257.9714696252922</v>
+        <v>258.0195543945325</v>
       </c>
       <c r="V21" t="n">
         <v>255.0969898936781</v>
@@ -24139,49 +24139,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>169.5695206702212</v>
+        <v>170.1822730301574</v>
       </c>
       <c r="H22" t="n">
-        <v>168.553025240772</v>
+        <v>174.0009507682046</v>
       </c>
       <c r="I22" t="n">
-        <v>168.992553034598</v>
+        <v>187.4196876406788</v>
       </c>
       <c r="J22" t="n">
-        <v>138.7628484707558</v>
+        <v>182.0844403182438</v>
       </c>
       <c r="K22" t="n">
-        <v>98.55123640234183</v>
+        <v>169.7419196749273</v>
       </c>
       <c r="L22" t="n">
-        <v>77.02385333317633</v>
+        <v>168.1234178276884</v>
       </c>
       <c r="M22" t="n">
-        <v>75.86266198249908</v>
+        <v>171.9143796404953</v>
       </c>
       <c r="N22" t="n">
-        <v>61.16136330339108</v>
+        <v>154.9291858016253</v>
       </c>
       <c r="O22" t="n">
-        <v>89.83460966937352</v>
+        <v>176.4443705083532</v>
       </c>
       <c r="P22" t="n">
-        <v>108.1576169638986</v>
+        <v>182.2672296601801</v>
       </c>
       <c r="Q22" t="n">
-        <v>166.1252925040833</v>
+        <v>217.4349469347395</v>
       </c>
       <c r="R22" t="n">
-        <v>231.8543828110549</v>
+        <v>259.4059571041854</v>
       </c>
       <c r="S22" t="n">
-        <v>248.8320787069986</v>
+        <v>259.5106811978864</v>
       </c>
       <c r="T22" t="n">
-        <v>214.188010651332</v>
+        <v>216.8061343710593</v>
       </c>
       <c r="U22" t="n">
-        <v>292.9358460705017</v>
+        <v>292.9692689264983</v>
       </c>
       <c r="V22" t="n">
         <v>232.1699497460494</v>
@@ -24218,49 +24218,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G23" t="n">
-        <v>424.3703131815284</v>
+        <v>425.736339456763</v>
       </c>
       <c r="H23" t="n">
-        <v>350.9157199772197</v>
+        <v>364.9055365684662</v>
       </c>
       <c r="I23" t="n">
-        <v>259.5820224797425</v>
+        <v>312.2457504557249</v>
       </c>
       <c r="J23" t="n">
-        <v>113.2719205263841</v>
+        <v>229.2116931040779</v>
       </c>
       <c r="K23" t="n">
-        <v>86.48232478941668</v>
+        <v>260.2459895977917</v>
       </c>
       <c r="L23" t="n">
-        <v>46.71789743482168</v>
+        <v>262.287088863908</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>239.8622612012899</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>236.1703130370088</v>
       </c>
       <c r="O23" t="n">
-        <v>14.7375564088087</v>
+        <v>244.8976159902447</v>
       </c>
       <c r="P23" t="n">
-        <v>69.20859413233046</v>
+        <v>265.6448800439119</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.0441994252908</v>
+        <v>278.5596693550327</v>
       </c>
       <c r="R23" t="n">
-        <v>216.4193954842993</v>
+        <v>302.2280434960056</v>
       </c>
       <c r="S23" t="n">
-        <v>239.3212844932483</v>
+        <v>270.449608240157</v>
       </c>
       <c r="T23" t="n">
-        <v>217.0325233056941</v>
+        <v>223.0123033255337</v>
       </c>
       <c r="U23" t="n">
-        <v>247.8723480208417</v>
+        <v>247.9816301228604</v>
       </c>
       <c r="V23" t="n">
         <v>308.2281821605244</v>
@@ -24297,49 +24297,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>169.21061655708</v>
+        <v>169.9415050495322</v>
       </c>
       <c r="H24" t="n">
-        <v>145.5431130523186</v>
+        <v>152.601957176791</v>
       </c>
       <c r="I24" t="n">
-        <v>122.4540854883441</v>
+        <v>147.6184480574213</v>
       </c>
       <c r="J24" t="n">
-        <v>98.35185998134867</v>
+        <v>167.4047942616663</v>
       </c>
       <c r="K24" t="n">
-        <v>39.81455943866638</v>
+        <v>157.8370227132801</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>136.1968812181101</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>127.1626992382137</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>106.8777639793056</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>134.2441598334879</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>139.4763417691797</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.8770407665705</v>
+        <v>175.1743156978348</v>
       </c>
       <c r="R24" t="n">
-        <v>165.9135208004222</v>
+        <v>211.2927203581111</v>
       </c>
       <c r="S24" t="n">
-        <v>218.5364288523852</v>
+        <v>232.1123620345562</v>
       </c>
       <c r="T24" t="n">
-        <v>240.1223324772803</v>
+        <v>243.0683260060678</v>
       </c>
       <c r="U24" t="n">
-        <v>257.9714696252922</v>
+        <v>258.0195543945325</v>
       </c>
       <c r="V24" t="n">
         <v>255.0969898936781</v>
@@ -24376,49 +24376,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>169.5695206702212</v>
+        <v>170.1822730301574</v>
       </c>
       <c r="H25" t="n">
-        <v>168.553025240772</v>
+        <v>174.0009507682046</v>
       </c>
       <c r="I25" t="n">
-        <v>168.992553034598</v>
+        <v>187.4196876406788</v>
       </c>
       <c r="J25" t="n">
-        <v>138.7628484707558</v>
+        <v>182.0844403182438</v>
       </c>
       <c r="K25" t="n">
-        <v>98.55123640234183</v>
+        <v>169.7419196749273</v>
       </c>
       <c r="L25" t="n">
-        <v>77.02385333317633</v>
+        <v>168.1234178276884</v>
       </c>
       <c r="M25" t="n">
-        <v>75.86266198249908</v>
+        <v>171.9143796404953</v>
       </c>
       <c r="N25" t="n">
-        <v>61.16136330339108</v>
+        <v>154.9291858016253</v>
       </c>
       <c r="O25" t="n">
-        <v>89.83460966937352</v>
+        <v>176.4443705083532</v>
       </c>
       <c r="P25" t="n">
-        <v>108.1576169638986</v>
+        <v>182.2672296601801</v>
       </c>
       <c r="Q25" t="n">
-        <v>166.1252925040833</v>
+        <v>217.4349469347395</v>
       </c>
       <c r="R25" t="n">
-        <v>231.8543828110549</v>
+        <v>259.4059571041854</v>
       </c>
       <c r="S25" t="n">
-        <v>248.8320787069986</v>
+        <v>259.5106811978864</v>
       </c>
       <c r="T25" t="n">
-        <v>214.188010651332</v>
+        <v>216.8061343710593</v>
       </c>
       <c r="U25" t="n">
-        <v>292.9358460705017</v>
+        <v>292.9692689264983</v>
       </c>
       <c r="V25" t="n">
         <v>232.1699497460494</v>
@@ -24455,49 +24455,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G26" t="n">
-        <v>424.3703131815284</v>
+        <v>425.736339456763</v>
       </c>
       <c r="H26" t="n">
-        <v>350.9157199772197</v>
+        <v>364.9055365684662</v>
       </c>
       <c r="I26" t="n">
-        <v>259.5820224797425</v>
+        <v>312.2457504557249</v>
       </c>
       <c r="J26" t="n">
-        <v>113.2719205263841</v>
+        <v>229.2116931040779</v>
       </c>
       <c r="K26" t="n">
-        <v>86.48232478941668</v>
+        <v>260.2459895977917</v>
       </c>
       <c r="L26" t="n">
-        <v>46.71789743482168</v>
+        <v>262.287088863908</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>239.8622612012899</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>236.1703130370088</v>
       </c>
       <c r="O26" t="n">
-        <v>14.7375564088087</v>
+        <v>244.8976159902447</v>
       </c>
       <c r="P26" t="n">
-        <v>69.20859413233046</v>
+        <v>265.6448800439119</v>
       </c>
       <c r="Q26" t="n">
-        <v>131.0441994252908</v>
+        <v>278.5596693550327</v>
       </c>
       <c r="R26" t="n">
-        <v>216.4193954842993</v>
+        <v>302.2280434960056</v>
       </c>
       <c r="S26" t="n">
-        <v>239.3212844932483</v>
+        <v>270.449608240157</v>
       </c>
       <c r="T26" t="n">
-        <v>217.0325233056941</v>
+        <v>223.0123033255337</v>
       </c>
       <c r="U26" t="n">
-        <v>247.8723480208417</v>
+        <v>247.9816301228604</v>
       </c>
       <c r="V26" t="n">
         <v>308.2281821605244</v>
@@ -24534,49 +24534,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>169.21061655708</v>
+        <v>169.9415050495322</v>
       </c>
       <c r="H27" t="n">
-        <v>145.5431130523186</v>
+        <v>152.601957176791</v>
       </c>
       <c r="I27" t="n">
-        <v>122.4540854883441</v>
+        <v>147.6184480574213</v>
       </c>
       <c r="J27" t="n">
-        <v>98.35185998134867</v>
+        <v>167.4047942616663</v>
       </c>
       <c r="K27" t="n">
-        <v>39.81455943866638</v>
+        <v>157.8370227132801</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>136.1968812181101</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>127.1626992382137</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>106.8777639793056</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>134.2441598334879</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>139.4763417691797</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.8770407665705</v>
+        <v>175.1743156978348</v>
       </c>
       <c r="R27" t="n">
-        <v>165.9135208004222</v>
+        <v>211.2927203581111</v>
       </c>
       <c r="S27" t="n">
-        <v>218.5364288523852</v>
+        <v>232.1123620345562</v>
       </c>
       <c r="T27" t="n">
-        <v>240.1223324772803</v>
+        <v>243.0683260060678</v>
       </c>
       <c r="U27" t="n">
-        <v>257.9714696252922</v>
+        <v>258.0195543945325</v>
       </c>
       <c r="V27" t="n">
         <v>255.0969898936781</v>
@@ -24613,49 +24613,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>169.5695206702212</v>
+        <v>170.1822730301574</v>
       </c>
       <c r="H28" t="n">
-        <v>168.553025240772</v>
+        <v>174.0009507682046</v>
       </c>
       <c r="I28" t="n">
-        <v>168.992553034598</v>
+        <v>187.4196876406788</v>
       </c>
       <c r="J28" t="n">
-        <v>138.7628484707558</v>
+        <v>182.0844403182438</v>
       </c>
       <c r="K28" t="n">
-        <v>98.55123640234183</v>
+        <v>169.7419196749273</v>
       </c>
       <c r="L28" t="n">
-        <v>77.02385333317633</v>
+        <v>168.1234178276884</v>
       </c>
       <c r="M28" t="n">
-        <v>75.86266198249908</v>
+        <v>171.9143796404953</v>
       </c>
       <c r="N28" t="n">
-        <v>61.16136330339108</v>
+        <v>154.9291858016253</v>
       </c>
       <c r="O28" t="n">
-        <v>89.83460966937352</v>
+        <v>176.4443705083532</v>
       </c>
       <c r="P28" t="n">
-        <v>108.1576169638986</v>
+        <v>182.2672296601801</v>
       </c>
       <c r="Q28" t="n">
-        <v>166.1252925040833</v>
+        <v>217.4349469347395</v>
       </c>
       <c r="R28" t="n">
-        <v>231.8543828110549</v>
+        <v>259.4059571041854</v>
       </c>
       <c r="S28" t="n">
-        <v>248.8320787069986</v>
+        <v>259.5106811978864</v>
       </c>
       <c r="T28" t="n">
-        <v>214.188010651332</v>
+        <v>216.8061343710593</v>
       </c>
       <c r="U28" t="n">
-        <v>292.9358460705017</v>
+        <v>292.9692689264983</v>
       </c>
       <c r="V28" t="n">
         <v>232.1699497460494</v>
@@ -24692,49 +24692,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G29" t="n">
-        <v>424.3703131815284</v>
+        <v>425.736339456763</v>
       </c>
       <c r="H29" t="n">
-        <v>350.9157199772197</v>
+        <v>364.9055365684662</v>
       </c>
       <c r="I29" t="n">
-        <v>259.5820224797425</v>
+        <v>312.2457504557249</v>
       </c>
       <c r="J29" t="n">
-        <v>113.2719205263841</v>
+        <v>229.2116931040779</v>
       </c>
       <c r="K29" t="n">
-        <v>86.48232478941668</v>
+        <v>260.2459895977917</v>
       </c>
       <c r="L29" t="n">
-        <v>46.71789743482168</v>
+        <v>262.287088863908</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>239.8622612012899</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>236.1703130370088</v>
       </c>
       <c r="O29" t="n">
-        <v>14.7375564088087</v>
+        <v>244.8976159902447</v>
       </c>
       <c r="P29" t="n">
-        <v>69.20859413233046</v>
+        <v>265.6448800439119</v>
       </c>
       <c r="Q29" t="n">
-        <v>131.0441994252908</v>
+        <v>278.5596693550327</v>
       </c>
       <c r="R29" t="n">
-        <v>216.4193954842993</v>
+        <v>302.2280434960056</v>
       </c>
       <c r="S29" t="n">
-        <v>239.3212844932483</v>
+        <v>270.449608240157</v>
       </c>
       <c r="T29" t="n">
-        <v>217.0325233056941</v>
+        <v>223.0123033255337</v>
       </c>
       <c r="U29" t="n">
-        <v>247.8723480208417</v>
+        <v>247.9816301228604</v>
       </c>
       <c r="V29" t="n">
         <v>308.2281821605244</v>
@@ -24771,49 +24771,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>169.21061655708</v>
+        <v>169.9415050495322</v>
       </c>
       <c r="H30" t="n">
-        <v>145.5431130523186</v>
+        <v>152.601957176791</v>
       </c>
       <c r="I30" t="n">
-        <v>122.4540854883441</v>
+        <v>147.6184480574213</v>
       </c>
       <c r="J30" t="n">
-        <v>98.35185998134867</v>
+        <v>167.4047942616663</v>
       </c>
       <c r="K30" t="n">
-        <v>39.81455943866638</v>
+        <v>157.8370227132801</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>136.1968812181101</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>127.1626992382137</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>106.8777639793056</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>134.2441598334879</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>139.4763417691797</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.8770407665705</v>
+        <v>175.1743156978348</v>
       </c>
       <c r="R30" t="n">
-        <v>165.9135208004222</v>
+        <v>211.2927203581111</v>
       </c>
       <c r="S30" t="n">
-        <v>218.5364288523852</v>
+        <v>232.1123620345562</v>
       </c>
       <c r="T30" t="n">
-        <v>240.1223324772803</v>
+        <v>243.0683260060678</v>
       </c>
       <c r="U30" t="n">
-        <v>257.9714696252922</v>
+        <v>258.0195543945325</v>
       </c>
       <c r="V30" t="n">
         <v>255.0969898936781</v>
@@ -24850,49 +24850,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>169.5695206702212</v>
+        <v>170.1822730301574</v>
       </c>
       <c r="H31" t="n">
-        <v>168.553025240772</v>
+        <v>174.0009507682046</v>
       </c>
       <c r="I31" t="n">
-        <v>168.992553034598</v>
+        <v>187.4196876406788</v>
       </c>
       <c r="J31" t="n">
-        <v>138.7628484707558</v>
+        <v>182.0844403182438</v>
       </c>
       <c r="K31" t="n">
-        <v>98.55123640234183</v>
+        <v>169.7419196749273</v>
       </c>
       <c r="L31" t="n">
-        <v>77.02385333317633</v>
+        <v>168.1234178276884</v>
       </c>
       <c r="M31" t="n">
-        <v>75.86266198249908</v>
+        <v>171.9143796404953</v>
       </c>
       <c r="N31" t="n">
-        <v>61.16136330339108</v>
+        <v>154.9291858016253</v>
       </c>
       <c r="O31" t="n">
-        <v>89.83460966937352</v>
+        <v>176.4443705083532</v>
       </c>
       <c r="P31" t="n">
-        <v>108.1576169638986</v>
+        <v>182.2672296601801</v>
       </c>
       <c r="Q31" t="n">
-        <v>166.1252925040833</v>
+        <v>217.4349469347395</v>
       </c>
       <c r="R31" t="n">
-        <v>231.8543828110549</v>
+        <v>259.4059571041854</v>
       </c>
       <c r="S31" t="n">
-        <v>248.8320787069986</v>
+        <v>259.5106811978864</v>
       </c>
       <c r="T31" t="n">
-        <v>214.188010651332</v>
+        <v>216.8061343710593</v>
       </c>
       <c r="U31" t="n">
-        <v>292.9358460705017</v>
+        <v>292.9692689264983</v>
       </c>
       <c r="V31" t="n">
         <v>232.1699497460494</v>
@@ -24929,49 +24929,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G32" t="n">
-        <v>424.3703131815284</v>
+        <v>425.736339456763</v>
       </c>
       <c r="H32" t="n">
-        <v>350.9157199772197</v>
+        <v>364.9055365684662</v>
       </c>
       <c r="I32" t="n">
-        <v>259.5820224797425</v>
+        <v>312.2457504557249</v>
       </c>
       <c r="J32" t="n">
-        <v>113.2719205263841</v>
+        <v>229.2116931040779</v>
       </c>
       <c r="K32" t="n">
-        <v>86.48232478941668</v>
+        <v>260.2459895977917</v>
       </c>
       <c r="L32" t="n">
-        <v>46.71789743482168</v>
+        <v>262.287088863908</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>239.8622612012899</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>236.1703130370088</v>
       </c>
       <c r="O32" t="n">
-        <v>14.7375564088087</v>
+        <v>244.8976159902447</v>
       </c>
       <c r="P32" t="n">
-        <v>69.20859413233046</v>
+        <v>265.6448800439119</v>
       </c>
       <c r="Q32" t="n">
-        <v>131.0441994252908</v>
+        <v>278.5596693550327</v>
       </c>
       <c r="R32" t="n">
-        <v>216.4193954842993</v>
+        <v>302.2280434960056</v>
       </c>
       <c r="S32" t="n">
-        <v>239.3212844932483</v>
+        <v>270.449608240157</v>
       </c>
       <c r="T32" t="n">
-        <v>217.0325233056941</v>
+        <v>223.0123033255337</v>
       </c>
       <c r="U32" t="n">
-        <v>247.8723480208417</v>
+        <v>247.9816301228604</v>
       </c>
       <c r="V32" t="n">
         <v>308.2281821605244</v>
@@ -25008,49 +25008,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>169.21061655708</v>
+        <v>169.9415050495322</v>
       </c>
       <c r="H33" t="n">
-        <v>145.5431130523186</v>
+        <v>152.601957176791</v>
       </c>
       <c r="I33" t="n">
-        <v>122.4540854883441</v>
+        <v>147.6184480574213</v>
       </c>
       <c r="J33" t="n">
-        <v>98.35185998134867</v>
+        <v>167.4047942616663</v>
       </c>
       <c r="K33" t="n">
-        <v>39.81455943866638</v>
+        <v>157.8370227132801</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>136.1968812181101</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>127.1626992382137</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>106.8777639793056</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>134.2441598334879</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>139.4763417691797</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.8770407665705</v>
+        <v>175.1743156978348</v>
       </c>
       <c r="R33" t="n">
-        <v>165.9135208004222</v>
+        <v>211.2927203581111</v>
       </c>
       <c r="S33" t="n">
-        <v>218.5364288523852</v>
+        <v>232.1123620345562</v>
       </c>
       <c r="T33" t="n">
-        <v>240.1223324772803</v>
+        <v>243.0683260060678</v>
       </c>
       <c r="U33" t="n">
-        <v>257.9714696252922</v>
+        <v>258.0195543945325</v>
       </c>
       <c r="V33" t="n">
         <v>255.0969898936781</v>
@@ -25087,49 +25087,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>169.5695206702212</v>
+        <v>170.1822730301574</v>
       </c>
       <c r="H34" t="n">
-        <v>168.553025240772</v>
+        <v>174.0009507682046</v>
       </c>
       <c r="I34" t="n">
-        <v>168.992553034598</v>
+        <v>187.4196876406788</v>
       </c>
       <c r="J34" t="n">
-        <v>138.7628484707558</v>
+        <v>182.0844403182438</v>
       </c>
       <c r="K34" t="n">
-        <v>98.55123640234183</v>
+        <v>169.7419196749273</v>
       </c>
       <c r="L34" t="n">
-        <v>77.02385333317633</v>
+        <v>168.1234178276884</v>
       </c>
       <c r="M34" t="n">
-        <v>75.86266198249908</v>
+        <v>171.9143796404953</v>
       </c>
       <c r="N34" t="n">
-        <v>61.16136330339108</v>
+        <v>154.9291858016253</v>
       </c>
       <c r="O34" t="n">
-        <v>89.83460966937352</v>
+        <v>176.4443705083532</v>
       </c>
       <c r="P34" t="n">
-        <v>108.1576169638986</v>
+        <v>182.2672296601801</v>
       </c>
       <c r="Q34" t="n">
-        <v>166.1252925040833</v>
+        <v>217.4349469347395</v>
       </c>
       <c r="R34" t="n">
-        <v>231.8543828110549</v>
+        <v>259.4059571041854</v>
       </c>
       <c r="S34" t="n">
-        <v>248.8320787069986</v>
+        <v>259.5106811978864</v>
       </c>
       <c r="T34" t="n">
-        <v>214.188010651332</v>
+        <v>216.8061343710593</v>
       </c>
       <c r="U34" t="n">
-        <v>292.9358460705017</v>
+        <v>292.9692689264983</v>
       </c>
       <c r="V34" t="n">
         <v>232.1699497460494</v>
@@ -25166,49 +25166,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G35" t="n">
-        <v>424.3703131815284</v>
+        <v>425.736339456763</v>
       </c>
       <c r="H35" t="n">
-        <v>350.9157199772197</v>
+        <v>364.9055365684662</v>
       </c>
       <c r="I35" t="n">
-        <v>259.5820224797425</v>
+        <v>312.2457504557249</v>
       </c>
       <c r="J35" t="n">
-        <v>113.2719205263841</v>
+        <v>229.2116931040779</v>
       </c>
       <c r="K35" t="n">
-        <v>86.48232478941668</v>
+        <v>260.2459895977917</v>
       </c>
       <c r="L35" t="n">
-        <v>46.71789743482168</v>
+        <v>262.287088863908</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>239.8622612012899</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>236.1703130370088</v>
       </c>
       <c r="O35" t="n">
-        <v>14.7375564088087</v>
+        <v>244.8976159902447</v>
       </c>
       <c r="P35" t="n">
-        <v>69.20859413233046</v>
+        <v>265.6448800439119</v>
       </c>
       <c r="Q35" t="n">
-        <v>131.0441994252908</v>
+        <v>278.5596693550327</v>
       </c>
       <c r="R35" t="n">
-        <v>216.4193954842993</v>
+        <v>302.2280434960056</v>
       </c>
       <c r="S35" t="n">
-        <v>239.3212844932483</v>
+        <v>270.449608240157</v>
       </c>
       <c r="T35" t="n">
-        <v>217.0325233056941</v>
+        <v>223.0123033255337</v>
       </c>
       <c r="U35" t="n">
-        <v>247.8723480208417</v>
+        <v>247.9816301228604</v>
       </c>
       <c r="V35" t="n">
         <v>308.2281821605244</v>
@@ -25245,49 +25245,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>169.21061655708</v>
+        <v>169.9415050495322</v>
       </c>
       <c r="H36" t="n">
-        <v>145.5431130523186</v>
+        <v>152.601957176791</v>
       </c>
       <c r="I36" t="n">
-        <v>122.4540854883441</v>
+        <v>147.6184480574213</v>
       </c>
       <c r="J36" t="n">
-        <v>98.35185998134867</v>
+        <v>167.4047942616663</v>
       </c>
       <c r="K36" t="n">
-        <v>39.81455943866638</v>
+        <v>157.8370227132801</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>136.1968812181101</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>127.1626992382137</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>106.8777639793056</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>134.2441598334879</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>139.4763417691797</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.8770407665705</v>
+        <v>175.1743156978348</v>
       </c>
       <c r="R36" t="n">
-        <v>165.9135208004222</v>
+        <v>211.2927203581111</v>
       </c>
       <c r="S36" t="n">
-        <v>218.5364288523852</v>
+        <v>232.1123620345562</v>
       </c>
       <c r="T36" t="n">
-        <v>240.1223324772803</v>
+        <v>243.0683260060678</v>
       </c>
       <c r="U36" t="n">
-        <v>257.9714696252922</v>
+        <v>258.0195543945325</v>
       </c>
       <c r="V36" t="n">
         <v>255.0969898936781</v>
@@ -25324,49 +25324,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>169.5695206702212</v>
+        <v>170.1822730301574</v>
       </c>
       <c r="H37" t="n">
-        <v>168.553025240772</v>
+        <v>174.0009507682046</v>
       </c>
       <c r="I37" t="n">
-        <v>168.992553034598</v>
+        <v>187.4196876406788</v>
       </c>
       <c r="J37" t="n">
-        <v>138.7628484707558</v>
+        <v>182.0844403182438</v>
       </c>
       <c r="K37" t="n">
-        <v>98.55123640234183</v>
+        <v>169.7419196749273</v>
       </c>
       <c r="L37" t="n">
-        <v>77.02385333317633</v>
+        <v>168.1234178276884</v>
       </c>
       <c r="M37" t="n">
-        <v>75.86266198249908</v>
+        <v>171.9143796404953</v>
       </c>
       <c r="N37" t="n">
-        <v>61.16136330339108</v>
+        <v>154.9291858016253</v>
       </c>
       <c r="O37" t="n">
-        <v>89.83460966937352</v>
+        <v>176.4443705083532</v>
       </c>
       <c r="P37" t="n">
-        <v>108.1576169638986</v>
+        <v>182.2672296601801</v>
       </c>
       <c r="Q37" t="n">
-        <v>166.1252925040833</v>
+        <v>217.4349469347395</v>
       </c>
       <c r="R37" t="n">
-        <v>231.8543828110549</v>
+        <v>259.4059571041854</v>
       </c>
       <c r="S37" t="n">
-        <v>248.8320787069986</v>
+        <v>259.5106811978864</v>
       </c>
       <c r="T37" t="n">
-        <v>214.188010651332</v>
+        <v>216.8061343710593</v>
       </c>
       <c r="U37" t="n">
-        <v>292.9358460705017</v>
+        <v>292.9692689264983</v>
       </c>
       <c r="V37" t="n">
         <v>232.1699497460494</v>
@@ -25403,49 +25403,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G38" t="n">
-        <v>424.3703131815284</v>
+        <v>425.736339456763</v>
       </c>
       <c r="H38" t="n">
-        <v>350.9157199772197</v>
+        <v>364.9055365684662</v>
       </c>
       <c r="I38" t="n">
-        <v>259.5820224797425</v>
+        <v>312.2457504557249</v>
       </c>
       <c r="J38" t="n">
-        <v>113.2719205263841</v>
+        <v>229.2116931040779</v>
       </c>
       <c r="K38" t="n">
-        <v>86.48232478941668</v>
+        <v>260.2459895977917</v>
       </c>
       <c r="L38" t="n">
-        <v>46.71789743482168</v>
+        <v>262.287088863908</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>239.8622612012899</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>236.1703130370088</v>
       </c>
       <c r="O38" t="n">
-        <v>14.7375564088087</v>
+        <v>244.8976159902447</v>
       </c>
       <c r="P38" t="n">
-        <v>69.20859413233046</v>
+        <v>265.6448800439119</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0441994252908</v>
+        <v>278.5596693550327</v>
       </c>
       <c r="R38" t="n">
-        <v>216.4193954842993</v>
+        <v>302.2280434960056</v>
       </c>
       <c r="S38" t="n">
-        <v>239.3212844932483</v>
+        <v>270.449608240157</v>
       </c>
       <c r="T38" t="n">
-        <v>217.0325233056941</v>
+        <v>223.0123033255337</v>
       </c>
       <c r="U38" t="n">
-        <v>247.8723480208417</v>
+        <v>247.9816301228604</v>
       </c>
       <c r="V38" t="n">
         <v>308.2281821605244</v>
@@ -25482,49 +25482,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>169.21061655708</v>
+        <v>169.9415050495322</v>
       </c>
       <c r="H39" t="n">
-        <v>145.5431130523186</v>
+        <v>152.601957176791</v>
       </c>
       <c r="I39" t="n">
-        <v>122.4540854883441</v>
+        <v>147.6184480574213</v>
       </c>
       <c r="J39" t="n">
-        <v>98.35185998134867</v>
+        <v>167.4047942616663</v>
       </c>
       <c r="K39" t="n">
-        <v>39.81455943866638</v>
+        <v>157.8370227132801</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>136.1968812181101</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>127.1626992382137</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>106.8777639793056</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>134.2441598334879</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>139.4763417691797</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.8770407665705</v>
+        <v>175.1743156978348</v>
       </c>
       <c r="R39" t="n">
-        <v>165.9135208004222</v>
+        <v>211.2927203581111</v>
       </c>
       <c r="S39" t="n">
-        <v>218.5364288523852</v>
+        <v>232.1123620345562</v>
       </c>
       <c r="T39" t="n">
-        <v>240.1223324772803</v>
+        <v>243.0683260060678</v>
       </c>
       <c r="U39" t="n">
-        <v>257.9714696252922</v>
+        <v>258.0195543945325</v>
       </c>
       <c r="V39" t="n">
         <v>255.0969898936781</v>
@@ -25561,49 +25561,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>169.5695206702212</v>
+        <v>170.1822730301574</v>
       </c>
       <c r="H40" t="n">
-        <v>168.553025240772</v>
+        <v>174.0009507682046</v>
       </c>
       <c r="I40" t="n">
-        <v>168.992553034598</v>
+        <v>187.4196876406788</v>
       </c>
       <c r="J40" t="n">
-        <v>138.7628484707558</v>
+        <v>182.0844403182438</v>
       </c>
       <c r="K40" t="n">
-        <v>98.55123640234183</v>
+        <v>169.7419196749273</v>
       </c>
       <c r="L40" t="n">
-        <v>77.02385333317633</v>
+        <v>168.1234178276884</v>
       </c>
       <c r="M40" t="n">
-        <v>75.86266198249908</v>
+        <v>171.9143796404953</v>
       </c>
       <c r="N40" t="n">
-        <v>61.16136330339108</v>
+        <v>154.9291858016253</v>
       </c>
       <c r="O40" t="n">
-        <v>89.83460966937352</v>
+        <v>176.4443705083532</v>
       </c>
       <c r="P40" t="n">
-        <v>108.1576169638986</v>
+        <v>182.2672296601801</v>
       </c>
       <c r="Q40" t="n">
-        <v>166.1252925040833</v>
+        <v>217.4349469347395</v>
       </c>
       <c r="R40" t="n">
-        <v>231.8543828110549</v>
+        <v>259.4059571041854</v>
       </c>
       <c r="S40" t="n">
-        <v>248.8320787069986</v>
+        <v>259.5106811978864</v>
       </c>
       <c r="T40" t="n">
-        <v>214.188010651332</v>
+        <v>216.8061343710593</v>
       </c>
       <c r="U40" t="n">
-        <v>292.9358460705017</v>
+        <v>292.9692689264983</v>
       </c>
       <c r="V40" t="n">
         <v>232.1699497460494</v>
@@ -25640,49 +25640,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G41" t="n">
-        <v>424.3703131815284</v>
+        <v>425.736339456763</v>
       </c>
       <c r="H41" t="n">
-        <v>350.9157199772197</v>
+        <v>364.9055365684662</v>
       </c>
       <c r="I41" t="n">
-        <v>259.5820224797425</v>
+        <v>312.2457504557249</v>
       </c>
       <c r="J41" t="n">
-        <v>113.2719205263841</v>
+        <v>229.2116931040779</v>
       </c>
       <c r="K41" t="n">
-        <v>86.48232478941668</v>
+        <v>260.2459895977917</v>
       </c>
       <c r="L41" t="n">
-        <v>46.71789743482168</v>
+        <v>262.287088863908</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>239.8622612012899</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>236.1703130370088</v>
       </c>
       <c r="O41" t="n">
-        <v>14.7375564088087</v>
+        <v>244.8976159902447</v>
       </c>
       <c r="P41" t="n">
-        <v>69.20859413233046</v>
+        <v>265.6448800439119</v>
       </c>
       <c r="Q41" t="n">
-        <v>131.0441994252908</v>
+        <v>278.5596693550327</v>
       </c>
       <c r="R41" t="n">
-        <v>216.4193954842993</v>
+        <v>302.2280434960056</v>
       </c>
       <c r="S41" t="n">
-        <v>239.3212844932483</v>
+        <v>270.449608240157</v>
       </c>
       <c r="T41" t="n">
-        <v>217.0325233056941</v>
+        <v>223.0123033255337</v>
       </c>
       <c r="U41" t="n">
-        <v>247.8723480208417</v>
+        <v>247.9816301228604</v>
       </c>
       <c r="V41" t="n">
         <v>308.2281821605244</v>
@@ -25719,49 +25719,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>169.21061655708</v>
+        <v>169.9415050495322</v>
       </c>
       <c r="H42" t="n">
-        <v>145.5431130523186</v>
+        <v>152.601957176791</v>
       </c>
       <c r="I42" t="n">
-        <v>122.4540854883441</v>
+        <v>147.6184480574213</v>
       </c>
       <c r="J42" t="n">
-        <v>98.35185998134867</v>
+        <v>167.4047942616663</v>
       </c>
       <c r="K42" t="n">
-        <v>39.81455943866638</v>
+        <v>157.8370227132801</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>136.1968812181101</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>127.1626992382137</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>106.8777639793056</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>134.2441598334879</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>139.4763417691797</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.8770407665705</v>
+        <v>175.1743156978348</v>
       </c>
       <c r="R42" t="n">
-        <v>165.9135208004222</v>
+        <v>211.2927203581111</v>
       </c>
       <c r="S42" t="n">
-        <v>218.5364288523852</v>
+        <v>232.1123620345562</v>
       </c>
       <c r="T42" t="n">
-        <v>240.1223324772803</v>
+        <v>243.0683260060678</v>
       </c>
       <c r="U42" t="n">
-        <v>257.9714696252922</v>
+        <v>258.0195543945325</v>
       </c>
       <c r="V42" t="n">
         <v>255.0969898936781</v>
@@ -25798,49 +25798,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>169.5695206702212</v>
+        <v>170.1822730301574</v>
       </c>
       <c r="H43" t="n">
-        <v>168.553025240772</v>
+        <v>174.0009507682046</v>
       </c>
       <c r="I43" t="n">
-        <v>168.992553034598</v>
+        <v>187.4196876406788</v>
       </c>
       <c r="J43" t="n">
-        <v>138.7628484707558</v>
+        <v>182.0844403182438</v>
       </c>
       <c r="K43" t="n">
-        <v>98.55123640234183</v>
+        <v>169.7419196749273</v>
       </c>
       <c r="L43" t="n">
-        <v>77.02385333317633</v>
+        <v>168.1234178276884</v>
       </c>
       <c r="M43" t="n">
-        <v>75.86266198249908</v>
+        <v>171.9143796404953</v>
       </c>
       <c r="N43" t="n">
-        <v>61.16136330339108</v>
+        <v>154.9291858016253</v>
       </c>
       <c r="O43" t="n">
-        <v>89.83460966937352</v>
+        <v>176.4443705083532</v>
       </c>
       <c r="P43" t="n">
-        <v>108.1576169638986</v>
+        <v>182.2672296601801</v>
       </c>
       <c r="Q43" t="n">
-        <v>166.1252925040833</v>
+        <v>217.4349469347395</v>
       </c>
       <c r="R43" t="n">
-        <v>231.8543828110549</v>
+        <v>259.4059571041854</v>
       </c>
       <c r="S43" t="n">
-        <v>248.8320787069986</v>
+        <v>259.5106811978864</v>
       </c>
       <c r="T43" t="n">
-        <v>214.188010651332</v>
+        <v>216.8061343710593</v>
       </c>
       <c r="U43" t="n">
-        <v>292.9358460705017</v>
+        <v>292.9692689264983</v>
       </c>
       <c r="V43" t="n">
         <v>232.1699497460494</v>
@@ -25877,49 +25877,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
-        <v>424.3703131815284</v>
+        <v>425.736339456763</v>
       </c>
       <c r="H44" t="n">
-        <v>350.9157199772197</v>
+        <v>364.9055365684662</v>
       </c>
       <c r="I44" t="n">
-        <v>259.5820224797425</v>
+        <v>312.2457504557249</v>
       </c>
       <c r="J44" t="n">
-        <v>113.2719205263841</v>
+        <v>229.2116931040779</v>
       </c>
       <c r="K44" t="n">
-        <v>86.48232478941668</v>
+        <v>260.2459895977917</v>
       </c>
       <c r="L44" t="n">
-        <v>46.71789743482168</v>
+        <v>262.287088863908</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>239.8622612012899</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>236.1703130370088</v>
       </c>
       <c r="O44" t="n">
-        <v>14.7375564088087</v>
+        <v>244.8976159902447</v>
       </c>
       <c r="P44" t="n">
-        <v>69.20859413233046</v>
+        <v>265.6448800439119</v>
       </c>
       <c r="Q44" t="n">
-        <v>131.0441994252908</v>
+        <v>278.5596693550327</v>
       </c>
       <c r="R44" t="n">
-        <v>216.4193954842993</v>
+        <v>302.2280434960056</v>
       </c>
       <c r="S44" t="n">
-        <v>239.3212844932483</v>
+        <v>270.449608240157</v>
       </c>
       <c r="T44" t="n">
-        <v>217.0325233056941</v>
+        <v>223.0123033255337</v>
       </c>
       <c r="U44" t="n">
-        <v>247.8723480208417</v>
+        <v>247.9816301228604</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
@@ -25956,49 +25956,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>169.21061655708</v>
+        <v>169.9415050495322</v>
       </c>
       <c r="H45" t="n">
-        <v>145.5431130523186</v>
+        <v>152.601957176791</v>
       </c>
       <c r="I45" t="n">
-        <v>122.4540854883441</v>
+        <v>147.6184480574213</v>
       </c>
       <c r="J45" t="n">
-        <v>98.35185998134867</v>
+        <v>167.4047942616663</v>
       </c>
       <c r="K45" t="n">
-        <v>39.81455943866638</v>
+        <v>157.8370227132801</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>136.1968812181101</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>127.1626992382137</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>106.8777639793056</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>134.2441598334879</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>139.4763417691797</v>
       </c>
       <c r="Q45" t="n">
-        <v>81.8770407665705</v>
+        <v>175.1743156978348</v>
       </c>
       <c r="R45" t="n">
-        <v>165.9135208004222</v>
+        <v>211.2927203581111</v>
       </c>
       <c r="S45" t="n">
-        <v>218.5364288523852</v>
+        <v>232.1123620345562</v>
       </c>
       <c r="T45" t="n">
-        <v>240.1223324772803</v>
+        <v>243.0683260060678</v>
       </c>
       <c r="U45" t="n">
-        <v>257.9714696252922</v>
+        <v>258.0195543945325</v>
       </c>
       <c r="V45" t="n">
         <v>255.0969898936781</v>
@@ -26035,49 +26035,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>169.5695206702212</v>
+        <v>170.1822730301574</v>
       </c>
       <c r="H46" t="n">
-        <v>168.553025240772</v>
+        <v>174.0009507682046</v>
       </c>
       <c r="I46" t="n">
-        <v>168.992553034598</v>
+        <v>187.4196876406788</v>
       </c>
       <c r="J46" t="n">
-        <v>138.7628484707558</v>
+        <v>182.0844403182438</v>
       </c>
       <c r="K46" t="n">
-        <v>98.55123640234183</v>
+        <v>169.7419196749273</v>
       </c>
       <c r="L46" t="n">
-        <v>77.02385333317633</v>
+        <v>168.1234178276884</v>
       </c>
       <c r="M46" t="n">
-        <v>75.86266198249908</v>
+        <v>171.9143796404953</v>
       </c>
       <c r="N46" t="n">
-        <v>61.16136330339108</v>
+        <v>154.9291858016253</v>
       </c>
       <c r="O46" t="n">
-        <v>89.83460966937352</v>
+        <v>176.4443705083532</v>
       </c>
       <c r="P46" t="n">
-        <v>108.1576169638986</v>
+        <v>182.2672296601801</v>
       </c>
       <c r="Q46" t="n">
-        <v>166.1252925040833</v>
+        <v>217.4349469347395</v>
       </c>
       <c r="R46" t="n">
-        <v>231.8543828110549</v>
+        <v>259.4059571041854</v>
       </c>
       <c r="S46" t="n">
-        <v>248.8320787069986</v>
+        <v>259.5106811978864</v>
       </c>
       <c r="T46" t="n">
-        <v>214.188010651332</v>
+        <v>216.8061343710593</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9358460705017</v>
+        <v>292.9692689264983</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1096773.56535326</v>
+        <v>1096690.362559281</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1096824.656741089</v>
+        <v>1096690.362559281</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1096839.538095801</v>
+        <v>1096690.362559281</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>346230.7026924875</v>
+        <v>128010.6593081314</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>346230.7026924875</v>
+        <v>128010.6593081314</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>346230.7026924875</v>
+        <v>128010.6593081314</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>346230.7026924875</v>
+        <v>128010.6593081314</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>346230.7026924875</v>
+        <v>128010.6593081314</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>346230.7026924875</v>
+        <v>128010.6593081314</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>346230.7026924875</v>
+        <v>128010.6593081314</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>346230.7026924875</v>
+        <v>128010.6593081314</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>346230.7026924875</v>
+        <v>128010.6593081314</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>346230.7026924875</v>
+        <v>128010.6593081314</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>346230.7026924875</v>
+        <v>128010.6593081314</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>346230.7026924875</v>
+        <v>128010.6593081314</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>648093.4704360178</v>
+        <v>648044.305148666</v>
       </c>
       <c r="C2" t="n">
-        <v>648123.6608015526</v>
+        <v>648044.305148666</v>
       </c>
       <c r="D2" t="n">
-        <v>648132.4543293368</v>
+        <v>648044.305148666</v>
       </c>
       <c r="E2" t="n">
-        <v>204590.8697728336</v>
+        <v>75642.66231844123</v>
       </c>
       <c r="F2" t="n">
-        <v>204590.8697728335</v>
+        <v>75642.66231844125</v>
       </c>
       <c r="G2" t="n">
-        <v>204590.8697728336</v>
+        <v>75642.66231844123</v>
       </c>
       <c r="H2" t="n">
-        <v>204590.8697728335</v>
+        <v>75642.66231844123</v>
       </c>
       <c r="I2" t="n">
-        <v>204590.8697728335</v>
+        <v>75642.66231844125</v>
       </c>
       <c r="J2" t="n">
-        <v>204590.8697728335</v>
+        <v>75642.66231844125</v>
       </c>
       <c r="K2" t="n">
-        <v>204590.8697728335</v>
+        <v>75642.66231844125</v>
       </c>
       <c r="L2" t="n">
-        <v>204590.8697728335</v>
+        <v>75642.66231844126</v>
       </c>
       <c r="M2" t="n">
-        <v>204590.8697728335</v>
+        <v>75642.66231844126</v>
       </c>
       <c r="N2" t="n">
-        <v>204590.8697728335</v>
+        <v>75642.66231844126</v>
       </c>
       <c r="O2" t="n">
-        <v>204590.8697728335</v>
+        <v>75642.66231844126</v>
       </c>
       <c r="P2" t="n">
-        <v>204590.8697728335</v>
+        <v>75642.66231844126</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>227770.7213497128</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132170.2271004163</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36206.25146095255</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>85540.71341203229</v>
+        <v>153022.6302447335</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>486662.9276887411</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="C4" t="n">
-        <v>436072.5797102631</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="D4" t="n">
-        <v>421909.5183320171</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38780.50030896609</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>41944.68285061335</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42866.31220493119</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>11559.82321943114</v>
+        <v>4152.204235402653</v>
       </c>
       <c r="F5" t="n">
-        <v>11559.82321943114</v>
+        <v>4152.204235402653</v>
       </c>
       <c r="G5" t="n">
-        <v>11559.82321943114</v>
+        <v>4152.204235402653</v>
       </c>
       <c r="H5" t="n">
-        <v>11559.82321943114</v>
+        <v>4152.204235402653</v>
       </c>
       <c r="I5" t="n">
-        <v>11559.82321943114</v>
+        <v>4152.204235402653</v>
       </c>
       <c r="J5" t="n">
-        <v>11559.82321943114</v>
+        <v>4152.204235402653</v>
       </c>
       <c r="K5" t="n">
-        <v>11559.82321943114</v>
+        <v>4152.204235402653</v>
       </c>
       <c r="L5" t="n">
-        <v>11559.82321943114</v>
+        <v>4152.204235402643</v>
       </c>
       <c r="M5" t="n">
-        <v>11559.82321943114</v>
+        <v>4152.204235402643</v>
       </c>
       <c r="N5" t="n">
-        <v>11559.82321943114</v>
+        <v>4152.204235402643</v>
       </c>
       <c r="O5" t="n">
-        <v>11559.82321943114</v>
+        <v>4152.204235402643</v>
       </c>
       <c r="P5" t="n">
-        <v>11559.82321943114</v>
+        <v>4152.204235402643</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105120.6789114022</v>
+        <v>45366.93147432979</v>
       </c>
       <c r="C6" t="n">
-        <v>37936.1711402598</v>
+        <v>45366.93147432979</v>
       </c>
       <c r="D6" t="n">
-        <v>147150.3723314359</v>
+        <v>45366.93147432979</v>
       </c>
       <c r="E6" t="n">
-        <v>107490.3331413701</v>
+        <v>-81532.17216169489</v>
       </c>
       <c r="F6" t="n">
-        <v>193031.0465534023</v>
+        <v>71490.4580830386</v>
       </c>
       <c r="G6" t="n">
-        <v>193031.0465534024</v>
+        <v>71490.45808303858</v>
       </c>
       <c r="H6" t="n">
-        <v>193031.0465534023</v>
+        <v>71490.45808303858</v>
       </c>
       <c r="I6" t="n">
-        <v>193031.0465534023</v>
+        <v>71490.4580830386</v>
       </c>
       <c r="J6" t="n">
-        <v>193031.0465534023</v>
+        <v>71490.4580830386</v>
       </c>
       <c r="K6" t="n">
-        <v>193031.0465534023</v>
+        <v>71490.4580830386</v>
       </c>
       <c r="L6" t="n">
-        <v>193031.0465534023</v>
+        <v>71490.45808303871</v>
       </c>
       <c r="M6" t="n">
-        <v>193031.0465534023</v>
+        <v>71490.45808303861</v>
       </c>
       <c r="N6" t="n">
-        <v>193031.0465534023</v>
+        <v>71490.45808303861</v>
       </c>
       <c r="O6" t="n">
-        <v>193031.0465534023</v>
+        <v>71490.45808303861</v>
       </c>
       <c r="P6" t="n">
-        <v>193031.0465534023</v>
+        <v>71490.45808303861</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>236.3715738057838</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>381.5175619547406</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>423.7941378408804</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>530.2671201573919</v>
+        <v>190.4680841927818</v>
       </c>
       <c r="F3" t="n">
-        <v>530.2671201573919</v>
+        <v>190.4680841927818</v>
       </c>
       <c r="G3" t="n">
-        <v>530.2671201573919</v>
+        <v>190.4680841927818</v>
       </c>
       <c r="H3" t="n">
-        <v>530.2671201573919</v>
+        <v>190.4680841927818</v>
       </c>
       <c r="I3" t="n">
-        <v>530.2671201573919</v>
+        <v>190.4680841927818</v>
       </c>
       <c r="J3" t="n">
-        <v>530.2671201573919</v>
+        <v>190.4680841927818</v>
       </c>
       <c r="K3" t="n">
-        <v>530.2671201573919</v>
+        <v>190.4680841927818</v>
       </c>
       <c r="L3" t="n">
-        <v>530.2671201573919</v>
+        <v>190.4680841927818</v>
       </c>
       <c r="M3" t="n">
-        <v>530.2671201573919</v>
+        <v>190.4680841927818</v>
       </c>
       <c r="N3" t="n">
-        <v>530.2671201573919</v>
+        <v>190.4680841927818</v>
       </c>
       <c r="O3" t="n">
-        <v>530.2671201573919</v>
+        <v>190.4680841927818</v>
       </c>
       <c r="P3" t="n">
-        <v>530.2671201573919</v>
+        <v>190.4680841927818</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>236.3715738057838</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.1459881489568</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>42.27657588613982</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>106.4729823165115</v>
+        <v>190.4680841927818</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27394,46 +27394,46 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>363.0156506870625</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="I2" t="n">
-        <v>305.1314015781159</v>
+        <v>341.7654321274525</v>
       </c>
       <c r="J2" t="n">
-        <v>213.5493763139611</v>
+        <v>294.1995948558653</v>
       </c>
       <c r="K2" t="n">
-        <v>236.7722367661941</v>
+        <v>357.6460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>233.1658227850986</v>
+        <v>383.1204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>207.459241621354</v>
+        <v>374.3126289943182</v>
       </c>
       <c r="N2" t="n">
-        <v>203.2429787239556</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>213.8052679077012</v>
+        <v>373.9095935602409</v>
       </c>
       <c r="P2" t="n">
-        <v>239.1082803023573</v>
+        <v>375.753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>258.6317880929379</v>
+        <v>361.2467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>290.6361436793111</v>
+        <v>350.3264989479647</v>
       </c>
       <c r="S2" t="n">
-        <v>266.2444795183227</v>
+        <v>287.8980161538978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.2044941766656</v>
+        <v>226.3641587569061</v>
       </c>
       <c r="U2" t="n">
-        <v>247.9668671915276</v>
+        <v>248.0428861901385</v>
       </c>
       <c r="V2" t="n">
         <v>308.2281821605244</v>
@@ -27470,49 +27470,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>169.8427692416854</v>
+        <v>170.3511911174186</v>
       </c>
       <c r="H3" t="n">
-        <v>151.6483771378492</v>
+        <v>156.5586620955882</v>
       </c>
       <c r="I3" t="n">
-        <v>144.2189915153264</v>
+        <v>161.7238675</v>
       </c>
       <c r="J3" t="n">
-        <v>158.0764256790844</v>
+        <v>206.1111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>141.8933550049603</v>
+        <v>223.9923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>114.7586524134717</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>102.1452973991276</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>81.1982259551414</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>110.7523994463509</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>120.6221329883223</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.5707764365441</v>
+        <v>227.470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>205.1624392358313</v>
+        <v>236.7291939414415</v>
       </c>
       <c r="S3" t="n">
-        <v>230.2783877089801</v>
+        <v>239.7221010586735</v>
       </c>
       <c r="T3" t="n">
-        <v>242.6703514121589</v>
+        <v>244.7196483586449</v>
       </c>
       <c r="U3" t="n">
-        <v>258.0130586177004</v>
+        <v>258.0465074253145</v>
       </c>
       <c r="V3" t="n">
         <v>255.0969898936781</v>
@@ -27549,49 +27549,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G4" t="n">
-        <v>170.0994962456094</v>
+        <v>170.5257400672264</v>
       </c>
       <c r="H4" t="n">
-        <v>173.2649899019503</v>
+        <v>177.0546849705086</v>
       </c>
       <c r="I4" t="n">
-        <v>184.9303639744524</v>
+        <v>197.7486781736251</v>
       </c>
       <c r="J4" t="n">
-        <v>176.2321216506977</v>
+        <v>206.3675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>160.1247623428918</v>
+        <v>209.64654452712</v>
       </c>
       <c r="L4" t="n">
-        <v>155.8167675140648</v>
+        <v>219.1875989570122</v>
       </c>
       <c r="M4" t="n">
-        <v>158.938742404479</v>
+        <v>225.7543989148582</v>
       </c>
       <c r="N4" t="n">
-        <v>142.2620802171062</v>
+        <v>207.4890097560039</v>
       </c>
       <c r="O4" t="n">
-        <v>164.7442482705998</v>
+        <v>224.9918749842445</v>
       </c>
       <c r="P4" t="n">
-        <v>172.2557538272067</v>
+        <v>223.8080065798648</v>
       </c>
       <c r="Q4" t="n">
-        <v>210.5035200031762</v>
+        <v>246.1956276478495</v>
       </c>
       <c r="R4" t="n">
-        <v>255.6840118644164</v>
+        <v>274.8494840618493</v>
       </c>
       <c r="S4" t="n">
-        <v>258.0681075980811</v>
+        <v>265.4963749257153</v>
       </c>
       <c r="T4" t="n">
-        <v>216.4524517461722</v>
+        <v>218.2736753476266</v>
       </c>
       <c r="U4" t="n">
-        <v>292.9647538291593</v>
+        <v>292.9880034921566</v>
       </c>
       <c r="V4" t="n">
         <v>232.1699497460494</v>
@@ -27631,46 +27631,46 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>357.0398663609097</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="I5" t="n">
-        <v>282.6359615455021</v>
+        <v>341.7654321274525</v>
       </c>
       <c r="J5" t="n">
-        <v>164.0254192821721</v>
+        <v>294.1995948558653</v>
       </c>
       <c r="K5" t="n">
-        <v>162.5486629370368</v>
+        <v>357.6460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>141.0849161526705</v>
+        <v>383.1204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>105.0014909015127</v>
+        <v>374.3126289943182</v>
       </c>
       <c r="N5" t="n">
-        <v>99.1273544811869</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>115.4918363067663</v>
+        <v>373.9095935602409</v>
       </c>
       <c r="P5" t="n">
-        <v>155.2000409925878</v>
+        <v>375.753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>195.6201948156689</v>
+        <v>361.2467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>253.9827700991628</v>
+        <v>350.3264989479647</v>
       </c>
       <c r="S5" t="n">
-        <v>252.9479400009585</v>
+        <v>287.8980161538978</v>
       </c>
       <c r="T5" t="n">
-        <v>219.650216535974</v>
+        <v>226.3641587569061</v>
       </c>
       <c r="U5" t="n">
-        <v>247.920187074736</v>
+        <v>248.0428861901385</v>
       </c>
       <c r="V5" t="n">
         <v>308.2281821605244</v>
@@ -27707,49 +27707,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>169.5305684369876</v>
+        <v>170.3511911174186</v>
       </c>
       <c r="H6" t="n">
-        <v>148.6331746293208</v>
+        <v>156.5586620955882</v>
       </c>
       <c r="I6" t="n">
-        <v>133.4699725816536</v>
+        <v>161.7238675</v>
       </c>
       <c r="J6" t="n">
-        <v>128.5802961440214</v>
+        <v>206.1111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>91.47977155514764</v>
+        <v>223.9923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>46.97136804258392</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.04073385794618</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>36.47188605845983</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>61.00547230880082</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>122.7186175772305</v>
+        <v>227.470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>185.7786033090706</v>
+        <v>236.7291939414415</v>
       </c>
       <c r="S6" t="n">
-        <v>224.4793946918968</v>
+        <v>239.7221010586735</v>
       </c>
       <c r="T6" t="n">
-        <v>241.4119630809429</v>
+        <v>244.7196483586449</v>
       </c>
       <c r="U6" t="n">
-        <v>257.9925190910756</v>
+        <v>258.0465074253145</v>
       </c>
       <c r="V6" t="n">
         <v>255.0969898936781</v>
@@ -27786,49 +27786,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G7" t="n">
-        <v>169.8377575784555</v>
+        <v>170.5257400672264</v>
       </c>
       <c r="H7" t="n">
-        <v>170.9378952067096</v>
+        <v>177.0546849705086</v>
       </c>
       <c r="I7" t="n">
-        <v>177.0591684204074</v>
+        <v>197.7486781736251</v>
       </c>
       <c r="J7" t="n">
-        <v>157.72719788292</v>
+        <v>206.3675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>129.7154881044711</v>
+        <v>209.64654452712</v>
       </c>
       <c r="L7" t="n">
-        <v>116.9033660355724</v>
+        <v>219.1875989570122</v>
       </c>
       <c r="M7" t="n">
-        <v>117.9100166068977</v>
+        <v>225.7543989148582</v>
       </c>
       <c r="N7" t="n">
-        <v>102.2089258152801</v>
+        <v>207.4890097560039</v>
       </c>
       <c r="O7" t="n">
-        <v>127.7486773896165</v>
+        <v>224.9918749842445</v>
       </c>
       <c r="P7" t="n">
-        <v>140.5996517561621</v>
+        <v>223.8080065798648</v>
       </c>
       <c r="Q7" t="n">
-        <v>188.5864757926837</v>
+        <v>246.1956276478495</v>
       </c>
       <c r="R7" t="n">
-        <v>243.9152896122075</v>
+        <v>274.8494840618493</v>
       </c>
       <c r="S7" t="n">
-        <v>253.506716462318</v>
+        <v>265.4963749257153</v>
       </c>
       <c r="T7" t="n">
-        <v>215.3341138046966</v>
+        <v>218.2736753476266</v>
       </c>
       <c r="U7" t="n">
-        <v>292.9504771745873</v>
+        <v>292.9880034921566</v>
       </c>
       <c r="V7" t="n">
         <v>232.1699497460494</v>
@@ -27868,46 +27868,46 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>355.2993036160095</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="I8" t="n">
-        <v>276.0837296184653</v>
+        <v>341.7654321274525</v>
       </c>
       <c r="J8" t="n">
-        <v>149.6006091008002</v>
+        <v>294.1995948558653</v>
       </c>
       <c r="K8" t="n">
-        <v>140.9296117214526</v>
+        <v>357.6460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>114.2645714324614</v>
+        <v>383.1204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>75.15868967310212</v>
+        <v>374.3126289943182</v>
       </c>
       <c r="N8" t="n">
-        <v>68.80166552921241</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>86.85614816471269</v>
+        <v>373.9095935602409</v>
       </c>
       <c r="P8" t="n">
-        <v>130.7601436734049</v>
+        <v>375.753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>177.2668497534603</v>
+        <v>361.2467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>243.3067662398352</v>
+        <v>350.3264989479647</v>
       </c>
       <c r="S8" t="n">
-        <v>249.0750657376202</v>
+        <v>287.8980161538978</v>
       </c>
       <c r="T8" t="n">
-        <v>218.9062337784199</v>
+        <v>226.3641587569061</v>
       </c>
       <c r="U8" t="n">
-        <v>247.9065905880188</v>
+        <v>248.0428861901385</v>
       </c>
       <c r="V8" t="n">
         <v>308.2281821605244</v>
@@ -27944,49 +27944,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G9" t="n">
-        <v>169.4396339152703</v>
+        <v>170.3511911174186</v>
       </c>
       <c r="H9" t="n">
-        <v>147.7549385906295</v>
+        <v>156.5586620955882</v>
       </c>
       <c r="I9" t="n">
-        <v>130.3391129523499</v>
+        <v>161.7238675</v>
       </c>
       <c r="J9" t="n">
-        <v>119.988978019839</v>
+        <v>206.1111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>76.79584047590225</v>
+        <v>223.9923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>27.22701059689194</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>14.83625009529541</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>43.64096701700126</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>111.1109056471342</v>
+        <v>227.470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>180.1326862501631</v>
+        <v>236.7291939414415</v>
       </c>
       <c r="S9" t="n">
-        <v>222.7903258345591</v>
+        <v>239.7221010586735</v>
       </c>
       <c r="T9" t="n">
-        <v>241.0454331447226</v>
+        <v>244.7196483586449</v>
       </c>
       <c r="U9" t="n">
-        <v>257.9865365567521</v>
+        <v>258.0465074253145</v>
       </c>
       <c r="V9" t="n">
         <v>255.0969898936781</v>
@@ -28023,49 +28023,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G10" t="n">
-        <v>169.7615211301363</v>
+        <v>170.5257400672264</v>
       </c>
       <c r="H10" t="n">
-        <v>170.2600838752892</v>
+        <v>177.0546849705086</v>
       </c>
       <c r="I10" t="n">
-        <v>174.7665305018606</v>
+        <v>197.7486781736251</v>
       </c>
       <c r="J10" t="n">
-        <v>152.3372809867477</v>
+        <v>206.3675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>120.8581989270142</v>
+        <v>209.64654452712</v>
       </c>
       <c r="L10" t="n">
-        <v>105.5690853463604</v>
+        <v>219.1875989570122</v>
       </c>
       <c r="M10" t="n">
-        <v>105.9596068035418</v>
+        <v>225.7543989148582</v>
       </c>
       <c r="N10" t="n">
-        <v>90.54267004656877</v>
+        <v>207.4890097560039</v>
       </c>
       <c r="O10" t="n">
-        <v>116.9730019489985</v>
+        <v>224.9918749842445</v>
       </c>
       <c r="P10" t="n">
-        <v>131.3791998612571</v>
+        <v>223.8080065798648</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.2027128338766</v>
+        <v>246.1956276478495</v>
       </c>
       <c r="R10" t="n">
-        <v>240.4874216723248</v>
+        <v>274.8494840618493</v>
       </c>
       <c r="S10" t="n">
-        <v>252.1781230856995</v>
+        <v>265.4963749257153</v>
       </c>
       <c r="T10" t="n">
-        <v>215.008376252787</v>
+        <v>218.2736753476266</v>
       </c>
       <c r="U10" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9880034921566</v>
       </c>
       <c r="V10" t="n">
         <v>232.1699497460494</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9502374826363161</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.731619619049175</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>36.63403054933661</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.65021854190411</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>120.8737711818994</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>149.9546015411306</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>166.8533873729642</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>169.5532496205046</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>160.1043256525397</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>136.6453377999557</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>102.6149579530425</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>59.69035526865355</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>21.65353663557508</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>4.159664580240475</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07601899861090528</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5084218757331954</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.91028495773902</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17.50487598467361</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>48.03471765424896</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>82.09898332837305</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>110.3922147288239</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128.8225077241522</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>132.2320561802752</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>120.9664977758713</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.08627905996431</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.89960645324088</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.56675470561016</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.443713349693338</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>2.049296946485993</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03344880761402603</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4262438216169872</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.789695068558307</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.81831419917267</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.13543818832099</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>49.52178218422813</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>63.37083144294736</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>66.81565651037917</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>65.22692953889772</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>60.24762671364471</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>51.55225275265813</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>35.69210764467336</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19.16547219743289</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>7.428267327634219</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.821223601454399</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02324966299729023</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.533738942531619</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>15.70740394520195</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>59.12947058195031</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>130.1741755736931</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>195.0973450110566</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>242.0355081735587</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>269.3111380928054</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>273.6688738632733</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>258.4177572534746</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>220.5535771097252</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>165.6265512303115</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>96.34372884880192</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>34.95007615293931</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>6.713942220932166</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1226991154025295</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8206226804309515</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>7.925487466267348</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>28.25389491834636</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>77.53084718931197</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>132.5125667781857</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1794990997116</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>207.9270712653336</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>195.2470111637624</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>156.7029397394858</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>104.7517653125544</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.95059063237085</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>15.24270636677666</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>3.307685277701948</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05398833423887841</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6879824887708436</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6.116789763798959</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>20.68950975321774</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>48.64036195609864</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>79.93105642264891</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>102.2842329214398</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>107.8443823079605</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>105.2800839407238</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>97.243197594628</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>83.20835482370272</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.60915185516583</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>30.93419444964174</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>11.98965846339734</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.939561542929968</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03752631756931878</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.703695026496</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>17.44796669010217</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.68170250898712</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>144.5989857550651</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>216.7163962266408</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>268.8558528937678</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>299.1539393212161</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>303.9945628152478</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>287.0534453955282</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>244.9934744289081</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.9798962925201</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>107.0197327081295</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>38.82295041627765</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>7.457924978486244</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.13629560211968</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9115572021483087</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>8.803723504958668</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>31.38475454765011</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>86.12216531349439</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>147.1964978574311</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>197.9238565454036</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>216.8826471269268</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>174.0674450312854</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3594772426508</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.59650769127835</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>16.93177522411441</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>3.674215213922349</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05997086856238876</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7642189370901121</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>6.794601095219365</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>22.98214767176447</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>54.03027885227092</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>88.78834560010573</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>113.6185136106518</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>119.7947921113164</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>116.9463397094352</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>108.0188730352461</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>92.4288067186077</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>63.99291481397294</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>34.36206238952449</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>13.31825184001586</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>3.265299094839569</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04168466929582434</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.131727116210619</v>
+        <v>0.7657008409760064</v>
       </c>
       <c r="H11" t="n">
-        <v>21.83155032889201</v>
+        <v>7.841733737645527</v>
       </c>
       <c r="I11" t="n">
-        <v>82.18340964770998</v>
+        <v>29.51968167172751</v>
       </c>
       <c r="J11" t="n">
-        <v>180.9276743294812</v>
+        <v>64.98790175178739</v>
       </c>
       <c r="K11" t="n">
-        <v>271.1636831586767</v>
+        <v>97.40001835030178</v>
       </c>
       <c r="L11" t="n">
-        <v>336.4025268914075</v>
+        <v>120.8333354623213</v>
       </c>
       <c r="M11" t="n">
-        <v>374.3126289943181</v>
+        <v>134.4503677930283</v>
       </c>
       <c r="N11" t="n">
-        <v>372.7962283444602</v>
+        <v>136.6259153074514</v>
       </c>
       <c r="O11" t="n">
-        <v>359.1720371514322</v>
+        <v>129.0119775699962</v>
       </c>
       <c r="P11" t="n">
-        <v>306.5450239699825</v>
+        <v>110.1087380584011</v>
       </c>
       <c r="Q11" t="n">
-        <v>230.2025466206896</v>
+        <v>82.68707669094778</v>
       </c>
       <c r="R11" t="n">
-        <v>133.9071034636654</v>
+        <v>48.0984554519591</v>
       </c>
       <c r="S11" t="n">
-        <v>48.57673166064953</v>
+        <v>17.44840791374077</v>
       </c>
       <c r="T11" t="n">
-        <v>9.331635451211989</v>
+        <v>3.35185543137247</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.0612560672780805</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.140574560338541</v>
+        <v>0.4096860678863607</v>
       </c>
       <c r="H12" t="n">
-        <v>11.0155490432696</v>
+        <v>3.956704918797222</v>
       </c>
       <c r="I12" t="n">
-        <v>39.26978201165591</v>
+        <v>14.10541944257865</v>
       </c>
       <c r="J12" t="n">
-        <v>107.7592833519847</v>
+        <v>38.70634907166709</v>
       </c>
       <c r="K12" t="n">
-        <v>184.177778894667</v>
+        <v>66.15531562005327</v>
       </c>
       <c r="L12" t="n">
-        <v>225.1508671422956</v>
+        <v>88.9539859241855</v>
       </c>
       <c r="M12" t="n">
-        <v>230.9678051232798</v>
+        <v>103.8051058850661</v>
       </c>
       <c r="N12" t="n">
-        <v>213.4302821354166</v>
+        <v>106.552518156111</v>
       </c>
       <c r="O12" t="n">
-        <v>231.7188972222222</v>
+        <v>97.47473738873428</v>
       </c>
       <c r="P12" t="n">
-        <v>217.7084120482866</v>
+        <v>78.23207027910694</v>
       </c>
       <c r="Q12" t="n">
-        <v>145.5933421232145</v>
+        <v>52.2960671919502</v>
       </c>
       <c r="R12" t="n">
-        <v>70.81567314101927</v>
+        <v>25.43647358333037</v>
       </c>
       <c r="S12" t="n">
-        <v>21.18567220628824</v>
+        <v>7.609739024117266</v>
       </c>
       <c r="T12" t="n">
-        <v>4.597315881364556</v>
+        <v>1.651322352577041</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.02695303078199743</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.3434670370689507</v>
       </c>
       <c r="H13" t="n">
-        <v>8.50165972973655</v>
+        <v>3.053734202303945</v>
       </c>
       <c r="I13" t="n">
-        <v>28.75612513902709</v>
+        <v>10.32899053294626</v>
       </c>
       <c r="J13" t="n">
-        <v>67.60471136826288</v>
+        <v>24.28311952077481</v>
       </c>
       <c r="K13" t="n">
-        <v>111.0953081247781</v>
+        <v>39.90462485219262</v>
       </c>
       <c r="L13" t="n">
-        <v>142.1637456238359</v>
+        <v>51.06418112932382</v>
       </c>
       <c r="M13" t="n">
-        <v>149.8917369323591</v>
+        <v>53.84001927436287</v>
       </c>
       <c r="N13" t="n">
-        <v>146.3276464526128</v>
+        <v>52.55982395437864</v>
       </c>
       <c r="O13" t="n">
-        <v>135.157265314871</v>
+        <v>48.54750447589133</v>
       </c>
       <c r="P13" t="n">
-        <v>115.6503896159662</v>
+        <v>41.5407769196847</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.07033514376617</v>
+        <v>28.76068071311004</v>
       </c>
       <c r="R13" t="n">
-        <v>42.99510125079442</v>
+        <v>15.44352695766391</v>
       </c>
       <c r="S13" t="n">
-        <v>16.66429621871672</v>
+        <v>5.985693727828893</v>
       </c>
       <c r="T13" t="n">
-        <v>4.085664696294657</v>
+        <v>1.467540976567334</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.01873456565830642</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.131727116210619</v>
+        <v>0.7657008409760067</v>
       </c>
       <c r="H14" t="n">
-        <v>21.83155032889201</v>
+        <v>7.841733737645531</v>
       </c>
       <c r="I14" t="n">
-        <v>82.18340964770998</v>
+        <v>29.51968167172753</v>
       </c>
       <c r="J14" t="n">
-        <v>180.9276743294812</v>
+        <v>64.9879017517874</v>
       </c>
       <c r="K14" t="n">
-        <v>271.1636831586767</v>
+        <v>97.40001835030178</v>
       </c>
       <c r="L14" t="n">
-        <v>336.4025268914075</v>
+        <v>120.8333354623213</v>
       </c>
       <c r="M14" t="n">
-        <v>374.3126289943182</v>
+        <v>134.4503677930283</v>
       </c>
       <c r="N14" t="n">
-        <v>372.7962283444602</v>
+        <v>136.6259153074514</v>
       </c>
       <c r="O14" t="n">
-        <v>359.1720371514322</v>
+        <v>129.0119775699962</v>
       </c>
       <c r="P14" t="n">
-        <v>306.5450239699825</v>
+        <v>110.1087380584011</v>
       </c>
       <c r="Q14" t="n">
-        <v>230.2025466206896</v>
+        <v>82.68707669094779</v>
       </c>
       <c r="R14" t="n">
-        <v>133.9071034636654</v>
+        <v>48.09845545195913</v>
       </c>
       <c r="S14" t="n">
-        <v>48.57673166064953</v>
+        <v>17.44840791374078</v>
       </c>
       <c r="T14" t="n">
-        <v>9.331635451211989</v>
+        <v>3.351855431372472</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.06125606727808052</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.140574560338541</v>
+        <v>0.4096860678863609</v>
       </c>
       <c r="H15" t="n">
-        <v>11.0155490432696</v>
+        <v>3.956704918797223</v>
       </c>
       <c r="I15" t="n">
-        <v>39.26978201165591</v>
+        <v>14.10541944257866</v>
       </c>
       <c r="J15" t="n">
-        <v>107.7592833519847</v>
+        <v>38.70634907166711</v>
       </c>
       <c r="K15" t="n">
-        <v>184.177778894667</v>
+        <v>66.15531562005329</v>
       </c>
       <c r="L15" t="n">
-        <v>225.1508671422956</v>
+        <v>88.9539859241855</v>
       </c>
       <c r="M15" t="n">
-        <v>230.9678051232798</v>
+        <v>103.8051058850661</v>
       </c>
       <c r="N15" t="n">
-        <v>213.4302821354166</v>
+        <v>106.552518156111</v>
       </c>
       <c r="O15" t="n">
-        <v>231.7188972222222</v>
+        <v>97.47473738873428</v>
       </c>
       <c r="P15" t="n">
-        <v>217.7084120482866</v>
+        <v>78.23207027910694</v>
       </c>
       <c r="Q15" t="n">
-        <v>145.5933421232145</v>
+        <v>52.29606719195022</v>
       </c>
       <c r="R15" t="n">
-        <v>70.81567314101927</v>
+        <v>25.43647358333038</v>
       </c>
       <c r="S15" t="n">
-        <v>21.18567220628824</v>
+        <v>7.609739024117269</v>
       </c>
       <c r="T15" t="n">
-        <v>4.597315881364556</v>
+        <v>1.651322352577042</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.02695303078199744</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.3434670370689508</v>
       </c>
       <c r="H16" t="n">
-        <v>8.50165972973655</v>
+        <v>3.053734202303946</v>
       </c>
       <c r="I16" t="n">
-        <v>28.75612513902709</v>
+        <v>10.32899053294627</v>
       </c>
       <c r="J16" t="n">
-        <v>67.60471136826288</v>
+        <v>24.28311952077483</v>
       </c>
       <c r="K16" t="n">
-        <v>111.0953081247781</v>
+        <v>39.90462485219264</v>
       </c>
       <c r="L16" t="n">
-        <v>142.1637456238359</v>
+        <v>51.06418112932383</v>
       </c>
       <c r="M16" t="n">
-        <v>149.8917369323591</v>
+        <v>53.84001927436288</v>
       </c>
       <c r="N16" t="n">
-        <v>146.3276464526128</v>
+        <v>52.55982395437865</v>
       </c>
       <c r="O16" t="n">
-        <v>135.157265314871</v>
+        <v>48.54750447589136</v>
       </c>
       <c r="P16" t="n">
-        <v>115.6503896159662</v>
+        <v>41.54077691968472</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.07033514376617</v>
+        <v>28.76068071311006</v>
       </c>
       <c r="R16" t="n">
-        <v>42.99510125079442</v>
+        <v>15.44352695766391</v>
       </c>
       <c r="S16" t="n">
-        <v>16.66429621871672</v>
+        <v>5.985693727828895</v>
       </c>
       <c r="T16" t="n">
-        <v>4.085664696294657</v>
+        <v>1.467540976567335</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.01873456565830643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.131727116210619</v>
+        <v>0.7657008409760067</v>
       </c>
       <c r="H17" t="n">
-        <v>21.83155032889201</v>
+        <v>7.841733737645531</v>
       </c>
       <c r="I17" t="n">
-        <v>82.18340964770998</v>
+        <v>29.51968167172752</v>
       </c>
       <c r="J17" t="n">
-        <v>180.9276743294812</v>
+        <v>64.9879017517874</v>
       </c>
       <c r="K17" t="n">
-        <v>271.1636831586767</v>
+        <v>97.40001835030178</v>
       </c>
       <c r="L17" t="n">
-        <v>336.4025268914076</v>
+        <v>120.8333354623213</v>
       </c>
       <c r="M17" t="n">
-        <v>374.3126289943182</v>
+        <v>134.4503677930283</v>
       </c>
       <c r="N17" t="n">
-        <v>372.7962283444602</v>
+        <v>136.6259153074514</v>
       </c>
       <c r="O17" t="n">
-        <v>359.1720371514323</v>
+        <v>129.0119775699962</v>
       </c>
       <c r="P17" t="n">
-        <v>306.5450239699825</v>
+        <v>110.1087380584011</v>
       </c>
       <c r="Q17" t="n">
-        <v>230.2025466206897</v>
+        <v>82.68707669094779</v>
       </c>
       <c r="R17" t="n">
-        <v>133.9071034636654</v>
+        <v>48.09845545195912</v>
       </c>
       <c r="S17" t="n">
-        <v>48.57673166064953</v>
+        <v>17.44840791374077</v>
       </c>
       <c r="T17" t="n">
-        <v>9.331635451211991</v>
+        <v>3.351855431372472</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.06125606727808052</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.140574560338541</v>
+        <v>0.4096860678863609</v>
       </c>
       <c r="H18" t="n">
-        <v>11.0155490432696</v>
+        <v>3.956704918797223</v>
       </c>
       <c r="I18" t="n">
-        <v>39.26978201165592</v>
+        <v>14.10541944257866</v>
       </c>
       <c r="J18" t="n">
-        <v>107.7592833519847</v>
+        <v>38.70634907166711</v>
       </c>
       <c r="K18" t="n">
-        <v>184.177778894667</v>
+        <v>66.15531562005329</v>
       </c>
       <c r="L18" t="n">
-        <v>225.1508671422956</v>
+        <v>88.9539859241855</v>
       </c>
       <c r="M18" t="n">
-        <v>230.9678051232798</v>
+        <v>103.8051058850661</v>
       </c>
       <c r="N18" t="n">
-        <v>213.4302821354166</v>
+        <v>106.552518156111</v>
       </c>
       <c r="O18" t="n">
-        <v>231.7188972222222</v>
+        <v>97.47473738873428</v>
       </c>
       <c r="P18" t="n">
-        <v>217.7084120482866</v>
+        <v>78.23207027910694</v>
       </c>
       <c r="Q18" t="n">
-        <v>145.5933421232145</v>
+        <v>52.29606719195021</v>
       </c>
       <c r="R18" t="n">
-        <v>70.81567314101929</v>
+        <v>25.43647358333038</v>
       </c>
       <c r="S18" t="n">
-        <v>21.18567220628824</v>
+        <v>7.609739024117269</v>
       </c>
       <c r="T18" t="n">
-        <v>4.597315881364556</v>
+        <v>1.651322352577042</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.02695303078199744</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9562193970051329</v>
+        <v>0.3434670370689508</v>
       </c>
       <c r="H19" t="n">
-        <v>8.501659729736552</v>
+        <v>3.053734202303946</v>
       </c>
       <c r="I19" t="n">
-        <v>28.75612513902709</v>
+        <v>10.32899053294627</v>
       </c>
       <c r="J19" t="n">
-        <v>67.60471136826288</v>
+        <v>24.28311952077482</v>
       </c>
       <c r="K19" t="n">
-        <v>111.0953081247781</v>
+        <v>39.90462485219263</v>
       </c>
       <c r="L19" t="n">
-        <v>142.1637456238359</v>
+        <v>51.06418112932383</v>
       </c>
       <c r="M19" t="n">
-        <v>149.8917369323592</v>
+        <v>53.84001927436288</v>
       </c>
       <c r="N19" t="n">
-        <v>146.3276464526128</v>
+        <v>52.55982395437865</v>
       </c>
       <c r="O19" t="n">
-        <v>135.157265314871</v>
+        <v>48.54750447589134</v>
       </c>
       <c r="P19" t="n">
-        <v>115.6503896159662</v>
+        <v>41.54077691968472</v>
       </c>
       <c r="Q19" t="n">
-        <v>80.07033514376619</v>
+        <v>28.76068071311005</v>
       </c>
       <c r="R19" t="n">
-        <v>42.99510125079442</v>
+        <v>15.44352695766391</v>
       </c>
       <c r="S19" t="n">
-        <v>16.66429621871672</v>
+        <v>5.985693727828895</v>
       </c>
       <c r="T19" t="n">
-        <v>4.085664696294658</v>
+        <v>1.467540976567335</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.01873456565830643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.131727116210619</v>
+        <v>0.7657008409760067</v>
       </c>
       <c r="H20" t="n">
-        <v>21.83155032889201</v>
+        <v>7.841733737645531</v>
       </c>
       <c r="I20" t="n">
-        <v>82.18340964770998</v>
+        <v>29.51968167172752</v>
       </c>
       <c r="J20" t="n">
-        <v>180.9276743294812</v>
+        <v>64.9879017517874</v>
       </c>
       <c r="K20" t="n">
-        <v>271.1636831586767</v>
+        <v>97.40001835030178</v>
       </c>
       <c r="L20" t="n">
-        <v>336.4025268914075</v>
+        <v>120.8333354623213</v>
       </c>
       <c r="M20" t="n">
-        <v>374.3126289943181</v>
+        <v>134.4503677930283</v>
       </c>
       <c r="N20" t="n">
-        <v>372.7962283444602</v>
+        <v>136.6259153074514</v>
       </c>
       <c r="O20" t="n">
-        <v>359.1720371514322</v>
+        <v>129.0119775699962</v>
       </c>
       <c r="P20" t="n">
-        <v>306.5450239699825</v>
+        <v>110.1087380584011</v>
       </c>
       <c r="Q20" t="n">
-        <v>230.2025466206896</v>
+        <v>82.68707669094779</v>
       </c>
       <c r="R20" t="n">
-        <v>133.9071034636654</v>
+        <v>48.09845545195912</v>
       </c>
       <c r="S20" t="n">
-        <v>48.57673166064953</v>
+        <v>17.44840791374077</v>
       </c>
       <c r="T20" t="n">
-        <v>9.331635451211989</v>
+        <v>3.351855431372472</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.06125606727808052</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.140574560338541</v>
+        <v>0.4096860678863609</v>
       </c>
       <c r="H21" t="n">
-        <v>11.0155490432696</v>
+        <v>3.956704918797223</v>
       </c>
       <c r="I21" t="n">
-        <v>39.26978201165591</v>
+        <v>14.10541944257866</v>
       </c>
       <c r="J21" t="n">
-        <v>107.7592833519847</v>
+        <v>38.70634907166711</v>
       </c>
       <c r="K21" t="n">
-        <v>184.177778894667</v>
+        <v>66.15531562005329</v>
       </c>
       <c r="L21" t="n">
-        <v>225.1508671422956</v>
+        <v>88.9539859241855</v>
       </c>
       <c r="M21" t="n">
-        <v>230.9678051232798</v>
+        <v>103.8051058850661</v>
       </c>
       <c r="N21" t="n">
-        <v>213.4302821354166</v>
+        <v>106.552518156111</v>
       </c>
       <c r="O21" t="n">
-        <v>231.7188972222222</v>
+        <v>97.47473738873428</v>
       </c>
       <c r="P21" t="n">
-        <v>217.7084120482866</v>
+        <v>78.23207027910694</v>
       </c>
       <c r="Q21" t="n">
-        <v>145.5933421232145</v>
+        <v>52.29606719195021</v>
       </c>
       <c r="R21" t="n">
-        <v>70.81567314101927</v>
+        <v>25.43647358333038</v>
       </c>
       <c r="S21" t="n">
-        <v>21.18567220628824</v>
+        <v>7.609739024117269</v>
       </c>
       <c r="T21" t="n">
-        <v>4.597315881364556</v>
+        <v>1.651322352577042</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.02695303078199744</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.3434670370689508</v>
       </c>
       <c r="H22" t="n">
-        <v>8.50165972973655</v>
+        <v>3.053734202303946</v>
       </c>
       <c r="I22" t="n">
-        <v>28.75612513902709</v>
+        <v>10.32899053294627</v>
       </c>
       <c r="J22" t="n">
-        <v>67.60471136826288</v>
+        <v>24.28311952077482</v>
       </c>
       <c r="K22" t="n">
-        <v>111.0953081247781</v>
+        <v>39.90462485219263</v>
       </c>
       <c r="L22" t="n">
-        <v>142.1637456238359</v>
+        <v>51.06418112932383</v>
       </c>
       <c r="M22" t="n">
-        <v>149.8917369323591</v>
+        <v>53.84001927436288</v>
       </c>
       <c r="N22" t="n">
-        <v>146.3276464526128</v>
+        <v>52.55982395437865</v>
       </c>
       <c r="O22" t="n">
-        <v>135.157265314871</v>
+        <v>48.54750447589134</v>
       </c>
       <c r="P22" t="n">
-        <v>115.6503896159662</v>
+        <v>41.54077691968472</v>
       </c>
       <c r="Q22" t="n">
-        <v>80.07033514376617</v>
+        <v>28.76068071311005</v>
       </c>
       <c r="R22" t="n">
-        <v>42.99510125079442</v>
+        <v>15.44352695766391</v>
       </c>
       <c r="S22" t="n">
-        <v>16.66429621871672</v>
+        <v>5.985693727828895</v>
       </c>
       <c r="T22" t="n">
-        <v>4.085664696294657</v>
+        <v>1.467540976567335</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.01873456565830643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.131727116210619</v>
+        <v>0.7657008409760067</v>
       </c>
       <c r="H23" t="n">
-        <v>21.83155032889201</v>
+        <v>7.84173373764553</v>
       </c>
       <c r="I23" t="n">
-        <v>82.18340964770998</v>
+        <v>29.51968167172752</v>
       </c>
       <c r="J23" t="n">
-        <v>180.9276743294812</v>
+        <v>64.9879017517874</v>
       </c>
       <c r="K23" t="n">
-        <v>271.1636831586767</v>
+        <v>97.40001835030178</v>
       </c>
       <c r="L23" t="n">
-        <v>336.4025268914075</v>
+        <v>120.8333354623213</v>
       </c>
       <c r="M23" t="n">
-        <v>374.3126289943181</v>
+        <v>134.4503677930283</v>
       </c>
       <c r="N23" t="n">
-        <v>372.7962283444602</v>
+        <v>136.6259153074514</v>
       </c>
       <c r="O23" t="n">
-        <v>359.1720371514322</v>
+        <v>129.0119775699962</v>
       </c>
       <c r="P23" t="n">
-        <v>306.5450239699825</v>
+        <v>110.1087380584011</v>
       </c>
       <c r="Q23" t="n">
-        <v>230.2025466206896</v>
+        <v>82.68707669094779</v>
       </c>
       <c r="R23" t="n">
-        <v>133.9071034636654</v>
+        <v>48.09845545195912</v>
       </c>
       <c r="S23" t="n">
-        <v>48.57673166064953</v>
+        <v>17.44840791374077</v>
       </c>
       <c r="T23" t="n">
-        <v>9.331635451211989</v>
+        <v>3.351855431372471</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.06125606727808051</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.140574560338541</v>
+        <v>0.4096860678863609</v>
       </c>
       <c r="H24" t="n">
-        <v>11.0155490432696</v>
+        <v>3.956704918797223</v>
       </c>
       <c r="I24" t="n">
-        <v>39.26978201165591</v>
+        <v>14.10541944257865</v>
       </c>
       <c r="J24" t="n">
-        <v>107.7592833519847</v>
+        <v>38.70634907166711</v>
       </c>
       <c r="K24" t="n">
-        <v>184.177778894667</v>
+        <v>66.15531562005329</v>
       </c>
       <c r="L24" t="n">
-        <v>225.1508671422956</v>
+        <v>88.9539859241855</v>
       </c>
       <c r="M24" t="n">
-        <v>230.9678051232798</v>
+        <v>103.8051058850661</v>
       </c>
       <c r="N24" t="n">
-        <v>213.4302821354166</v>
+        <v>106.552518156111</v>
       </c>
       <c r="O24" t="n">
-        <v>231.7188972222222</v>
+        <v>97.47473738873428</v>
       </c>
       <c r="P24" t="n">
-        <v>217.7084120482866</v>
+        <v>78.23207027910694</v>
       </c>
       <c r="Q24" t="n">
-        <v>145.5933421232145</v>
+        <v>52.29606719195021</v>
       </c>
       <c r="R24" t="n">
-        <v>70.81567314101927</v>
+        <v>25.43647358333038</v>
       </c>
       <c r="S24" t="n">
-        <v>21.18567220628824</v>
+        <v>7.609739024117268</v>
       </c>
       <c r="T24" t="n">
-        <v>4.597315881364556</v>
+        <v>1.651322352577042</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.02695303078199743</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.3434670370689507</v>
       </c>
       <c r="H25" t="n">
-        <v>8.50165972973655</v>
+        <v>3.053734202303946</v>
       </c>
       <c r="I25" t="n">
-        <v>28.75612513902709</v>
+        <v>10.32899053294627</v>
       </c>
       <c r="J25" t="n">
-        <v>67.60471136826288</v>
+        <v>24.28311952077481</v>
       </c>
       <c r="K25" t="n">
-        <v>111.0953081247781</v>
+        <v>39.90462485219263</v>
       </c>
       <c r="L25" t="n">
-        <v>142.1637456238359</v>
+        <v>51.06418112932383</v>
       </c>
       <c r="M25" t="n">
-        <v>149.8917369323591</v>
+        <v>53.84001927436288</v>
       </c>
       <c r="N25" t="n">
-        <v>146.3276464526128</v>
+        <v>52.55982395437865</v>
       </c>
       <c r="O25" t="n">
-        <v>135.157265314871</v>
+        <v>48.54750447589134</v>
       </c>
       <c r="P25" t="n">
-        <v>115.6503896159662</v>
+        <v>41.54077691968472</v>
       </c>
       <c r="Q25" t="n">
-        <v>80.07033514376617</v>
+        <v>28.76068071311005</v>
       </c>
       <c r="R25" t="n">
-        <v>42.99510125079442</v>
+        <v>15.44352695766391</v>
       </c>
       <c r="S25" t="n">
-        <v>16.66429621871672</v>
+        <v>5.985693727828894</v>
       </c>
       <c r="T25" t="n">
-        <v>4.085664696294657</v>
+        <v>1.467540976567335</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.01873456565830642</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.131727116210619</v>
+        <v>0.7657008409760067</v>
       </c>
       <c r="H26" t="n">
-        <v>21.83155032889201</v>
+        <v>7.84173373764553</v>
       </c>
       <c r="I26" t="n">
-        <v>82.18340964770998</v>
+        <v>29.51968167172752</v>
       </c>
       <c r="J26" t="n">
-        <v>180.9276743294812</v>
+        <v>64.9879017517874</v>
       </c>
       <c r="K26" t="n">
-        <v>271.1636831586767</v>
+        <v>97.40001835030178</v>
       </c>
       <c r="L26" t="n">
-        <v>336.4025268914075</v>
+        <v>120.8333354623213</v>
       </c>
       <c r="M26" t="n">
-        <v>374.3126289943181</v>
+        <v>134.4503677930283</v>
       </c>
       <c r="N26" t="n">
-        <v>372.7962283444602</v>
+        <v>136.6259153074514</v>
       </c>
       <c r="O26" t="n">
-        <v>359.1720371514322</v>
+        <v>129.0119775699962</v>
       </c>
       <c r="P26" t="n">
-        <v>306.5450239699825</v>
+        <v>110.1087380584011</v>
       </c>
       <c r="Q26" t="n">
-        <v>230.2025466206896</v>
+        <v>82.68707669094779</v>
       </c>
       <c r="R26" t="n">
-        <v>133.9071034636654</v>
+        <v>48.09845545195912</v>
       </c>
       <c r="S26" t="n">
-        <v>48.57673166064953</v>
+        <v>17.44840791374077</v>
       </c>
       <c r="T26" t="n">
-        <v>9.331635451211989</v>
+        <v>3.351855431372471</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.06125606727808051</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.140574560338541</v>
+        <v>0.4096860678863609</v>
       </c>
       <c r="H27" t="n">
-        <v>11.0155490432696</v>
+        <v>3.956704918797223</v>
       </c>
       <c r="I27" t="n">
-        <v>39.26978201165591</v>
+        <v>14.10541944257865</v>
       </c>
       <c r="J27" t="n">
-        <v>107.7592833519847</v>
+        <v>38.70634907166711</v>
       </c>
       <c r="K27" t="n">
-        <v>184.177778894667</v>
+        <v>66.15531562005329</v>
       </c>
       <c r="L27" t="n">
-        <v>225.1508671422956</v>
+        <v>88.9539859241855</v>
       </c>
       <c r="M27" t="n">
-        <v>230.9678051232798</v>
+        <v>103.8051058850661</v>
       </c>
       <c r="N27" t="n">
-        <v>213.4302821354166</v>
+        <v>106.552518156111</v>
       </c>
       <c r="O27" t="n">
-        <v>231.7188972222222</v>
+        <v>97.47473738873428</v>
       </c>
       <c r="P27" t="n">
-        <v>217.7084120482866</v>
+        <v>78.23207027910694</v>
       </c>
       <c r="Q27" t="n">
-        <v>145.5933421232145</v>
+        <v>52.29606719195021</v>
       </c>
       <c r="R27" t="n">
-        <v>70.81567314101927</v>
+        <v>25.43647358333038</v>
       </c>
       <c r="S27" t="n">
-        <v>21.18567220628824</v>
+        <v>7.609739024117268</v>
       </c>
       <c r="T27" t="n">
-        <v>4.597315881364556</v>
+        <v>1.651322352577042</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.02695303078199743</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.3434670370689507</v>
       </c>
       <c r="H28" t="n">
-        <v>8.50165972973655</v>
+        <v>3.053734202303946</v>
       </c>
       <c r="I28" t="n">
-        <v>28.75612513902709</v>
+        <v>10.32899053294627</v>
       </c>
       <c r="J28" t="n">
-        <v>67.60471136826288</v>
+        <v>24.28311952077481</v>
       </c>
       <c r="K28" t="n">
-        <v>111.0953081247781</v>
+        <v>39.90462485219263</v>
       </c>
       <c r="L28" t="n">
-        <v>142.1637456238359</v>
+        <v>51.06418112932383</v>
       </c>
       <c r="M28" t="n">
-        <v>149.8917369323591</v>
+        <v>53.84001927436288</v>
       </c>
       <c r="N28" t="n">
-        <v>146.3276464526128</v>
+        <v>52.55982395437865</v>
       </c>
       <c r="O28" t="n">
-        <v>135.157265314871</v>
+        <v>48.54750447589134</v>
       </c>
       <c r="P28" t="n">
-        <v>115.6503896159662</v>
+        <v>41.54077691968472</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.07033514376617</v>
+        <v>28.76068071311005</v>
       </c>
       <c r="R28" t="n">
-        <v>42.99510125079442</v>
+        <v>15.44352695766391</v>
       </c>
       <c r="S28" t="n">
-        <v>16.66429621871672</v>
+        <v>5.985693727828894</v>
       </c>
       <c r="T28" t="n">
-        <v>4.085664696294657</v>
+        <v>1.467540976567335</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.01873456565830642</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.131727116210619</v>
+        <v>0.7657008409760067</v>
       </c>
       <c r="H29" t="n">
-        <v>21.83155032889201</v>
+        <v>7.84173373764553</v>
       </c>
       <c r="I29" t="n">
-        <v>82.18340964770998</v>
+        <v>29.51968167172752</v>
       </c>
       <c r="J29" t="n">
-        <v>180.9276743294812</v>
+        <v>64.9879017517874</v>
       </c>
       <c r="K29" t="n">
-        <v>271.1636831586767</v>
+        <v>97.40001835030178</v>
       </c>
       <c r="L29" t="n">
-        <v>336.4025268914075</v>
+        <v>120.8333354623213</v>
       </c>
       <c r="M29" t="n">
-        <v>374.3126289943181</v>
+        <v>134.4503677930283</v>
       </c>
       <c r="N29" t="n">
-        <v>372.7962283444602</v>
+        <v>136.6259153074514</v>
       </c>
       <c r="O29" t="n">
-        <v>359.1720371514322</v>
+        <v>129.0119775699962</v>
       </c>
       <c r="P29" t="n">
-        <v>306.5450239699825</v>
+        <v>110.1087380584011</v>
       </c>
       <c r="Q29" t="n">
-        <v>230.2025466206896</v>
+        <v>82.68707669094779</v>
       </c>
       <c r="R29" t="n">
-        <v>133.9071034636654</v>
+        <v>48.09845545195912</v>
       </c>
       <c r="S29" t="n">
-        <v>48.57673166064953</v>
+        <v>17.44840791374077</v>
       </c>
       <c r="T29" t="n">
-        <v>9.331635451211989</v>
+        <v>3.351855431372471</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.06125606727808051</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.140574560338541</v>
+        <v>0.4096860678863609</v>
       </c>
       <c r="H30" t="n">
-        <v>11.0155490432696</v>
+        <v>3.956704918797223</v>
       </c>
       <c r="I30" t="n">
-        <v>39.26978201165591</v>
+        <v>14.10541944257865</v>
       </c>
       <c r="J30" t="n">
-        <v>107.7592833519847</v>
+        <v>38.70634907166711</v>
       </c>
       <c r="K30" t="n">
-        <v>184.177778894667</v>
+        <v>66.15531562005329</v>
       </c>
       <c r="L30" t="n">
-        <v>225.1508671422956</v>
+        <v>88.9539859241855</v>
       </c>
       <c r="M30" t="n">
-        <v>230.9678051232798</v>
+        <v>103.8051058850661</v>
       </c>
       <c r="N30" t="n">
-        <v>213.4302821354166</v>
+        <v>106.552518156111</v>
       </c>
       <c r="O30" t="n">
-        <v>231.7188972222222</v>
+        <v>97.47473738873428</v>
       </c>
       <c r="P30" t="n">
-        <v>217.7084120482866</v>
+        <v>78.23207027910694</v>
       </c>
       <c r="Q30" t="n">
-        <v>145.5933421232145</v>
+        <v>52.29606719195021</v>
       </c>
       <c r="R30" t="n">
-        <v>70.81567314101927</v>
+        <v>25.43647358333038</v>
       </c>
       <c r="S30" t="n">
-        <v>21.18567220628824</v>
+        <v>7.609739024117268</v>
       </c>
       <c r="T30" t="n">
-        <v>4.597315881364556</v>
+        <v>1.651322352577042</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.02695303078199743</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.3434670370689507</v>
       </c>
       <c r="H31" t="n">
-        <v>8.50165972973655</v>
+        <v>3.053734202303946</v>
       </c>
       <c r="I31" t="n">
-        <v>28.75612513902709</v>
+        <v>10.32899053294627</v>
       </c>
       <c r="J31" t="n">
-        <v>67.60471136826288</v>
+        <v>24.28311952077481</v>
       </c>
       <c r="K31" t="n">
-        <v>111.0953081247781</v>
+        <v>39.90462485219263</v>
       </c>
       <c r="L31" t="n">
-        <v>142.1637456238359</v>
+        <v>51.06418112932383</v>
       </c>
       <c r="M31" t="n">
-        <v>149.8917369323591</v>
+        <v>53.84001927436288</v>
       </c>
       <c r="N31" t="n">
-        <v>146.3276464526128</v>
+        <v>52.55982395437865</v>
       </c>
       <c r="O31" t="n">
-        <v>135.157265314871</v>
+        <v>48.54750447589134</v>
       </c>
       <c r="P31" t="n">
-        <v>115.6503896159662</v>
+        <v>41.54077691968472</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.07033514376617</v>
+        <v>28.76068071311005</v>
       </c>
       <c r="R31" t="n">
-        <v>42.99510125079442</v>
+        <v>15.44352695766391</v>
       </c>
       <c r="S31" t="n">
-        <v>16.66429621871672</v>
+        <v>5.985693727828894</v>
       </c>
       <c r="T31" t="n">
-        <v>4.085664696294657</v>
+        <v>1.467540976567335</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.01873456565830642</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.131727116210619</v>
+        <v>0.7657008409760067</v>
       </c>
       <c r="H32" t="n">
-        <v>21.83155032889201</v>
+        <v>7.84173373764553</v>
       </c>
       <c r="I32" t="n">
-        <v>82.18340964770998</v>
+        <v>29.51968167172752</v>
       </c>
       <c r="J32" t="n">
-        <v>180.9276743294812</v>
+        <v>64.9879017517874</v>
       </c>
       <c r="K32" t="n">
-        <v>271.1636831586767</v>
+        <v>97.40001835030178</v>
       </c>
       <c r="L32" t="n">
-        <v>336.4025268914075</v>
+        <v>120.8333354623213</v>
       </c>
       <c r="M32" t="n">
-        <v>374.3126289943181</v>
+        <v>134.4503677930283</v>
       </c>
       <c r="N32" t="n">
-        <v>372.7962283444602</v>
+        <v>136.6259153074514</v>
       </c>
       <c r="O32" t="n">
-        <v>359.1720371514322</v>
+        <v>129.0119775699962</v>
       </c>
       <c r="P32" t="n">
-        <v>306.5450239699825</v>
+        <v>110.1087380584011</v>
       </c>
       <c r="Q32" t="n">
-        <v>230.2025466206896</v>
+        <v>82.68707669094779</v>
       </c>
       <c r="R32" t="n">
-        <v>133.9071034636654</v>
+        <v>48.09845545195912</v>
       </c>
       <c r="S32" t="n">
-        <v>48.57673166064953</v>
+        <v>17.44840791374077</v>
       </c>
       <c r="T32" t="n">
-        <v>9.331635451211989</v>
+        <v>3.351855431372471</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.06125606727808051</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.140574560338541</v>
+        <v>0.4096860678863609</v>
       </c>
       <c r="H33" t="n">
-        <v>11.0155490432696</v>
+        <v>3.956704918797223</v>
       </c>
       <c r="I33" t="n">
-        <v>39.26978201165591</v>
+        <v>14.10541944257865</v>
       </c>
       <c r="J33" t="n">
-        <v>107.7592833519847</v>
+        <v>38.70634907166711</v>
       </c>
       <c r="K33" t="n">
-        <v>184.177778894667</v>
+        <v>66.15531562005329</v>
       </c>
       <c r="L33" t="n">
-        <v>225.1508671422956</v>
+        <v>88.9539859241855</v>
       </c>
       <c r="M33" t="n">
-        <v>230.9678051232798</v>
+        <v>103.8051058850661</v>
       </c>
       <c r="N33" t="n">
-        <v>213.4302821354166</v>
+        <v>106.552518156111</v>
       </c>
       <c r="O33" t="n">
-        <v>231.7188972222222</v>
+        <v>97.47473738873428</v>
       </c>
       <c r="P33" t="n">
-        <v>217.7084120482866</v>
+        <v>78.23207027910694</v>
       </c>
       <c r="Q33" t="n">
-        <v>145.5933421232145</v>
+        <v>52.29606719195021</v>
       </c>
       <c r="R33" t="n">
-        <v>70.81567314101927</v>
+        <v>25.43647358333038</v>
       </c>
       <c r="S33" t="n">
-        <v>21.18567220628824</v>
+        <v>7.609739024117268</v>
       </c>
       <c r="T33" t="n">
-        <v>4.597315881364556</v>
+        <v>1.651322352577042</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.02695303078199743</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.3434670370689507</v>
       </c>
       <c r="H34" t="n">
-        <v>8.50165972973655</v>
+        <v>3.053734202303946</v>
       </c>
       <c r="I34" t="n">
-        <v>28.75612513902709</v>
+        <v>10.32899053294627</v>
       </c>
       <c r="J34" t="n">
-        <v>67.60471136826288</v>
+        <v>24.28311952077481</v>
       </c>
       <c r="K34" t="n">
-        <v>111.0953081247781</v>
+        <v>39.90462485219263</v>
       </c>
       <c r="L34" t="n">
-        <v>142.1637456238359</v>
+        <v>51.06418112932383</v>
       </c>
       <c r="M34" t="n">
-        <v>149.8917369323591</v>
+        <v>53.84001927436288</v>
       </c>
       <c r="N34" t="n">
-        <v>146.3276464526128</v>
+        <v>52.55982395437865</v>
       </c>
       <c r="O34" t="n">
-        <v>135.157265314871</v>
+        <v>48.54750447589134</v>
       </c>
       <c r="P34" t="n">
-        <v>115.6503896159662</v>
+        <v>41.54077691968472</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.07033514376617</v>
+        <v>28.76068071311005</v>
       </c>
       <c r="R34" t="n">
-        <v>42.99510125079442</v>
+        <v>15.44352695766391</v>
       </c>
       <c r="S34" t="n">
-        <v>16.66429621871672</v>
+        <v>5.985693727828894</v>
       </c>
       <c r="T34" t="n">
-        <v>4.085664696294657</v>
+        <v>1.467540976567335</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.01873456565830642</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.131727116210619</v>
+        <v>0.7657008409760067</v>
       </c>
       <c r="H35" t="n">
-        <v>21.83155032889201</v>
+        <v>7.84173373764553</v>
       </c>
       <c r="I35" t="n">
-        <v>82.18340964770998</v>
+        <v>29.51968167172752</v>
       </c>
       <c r="J35" t="n">
-        <v>180.9276743294812</v>
+        <v>64.9879017517874</v>
       </c>
       <c r="K35" t="n">
-        <v>271.1636831586767</v>
+        <v>97.40001835030178</v>
       </c>
       <c r="L35" t="n">
-        <v>336.4025268914075</v>
+        <v>120.8333354623213</v>
       </c>
       <c r="M35" t="n">
-        <v>374.3126289943181</v>
+        <v>134.4503677930283</v>
       </c>
       <c r="N35" t="n">
-        <v>372.7962283444602</v>
+        <v>136.6259153074514</v>
       </c>
       <c r="O35" t="n">
-        <v>359.1720371514322</v>
+        <v>129.0119775699962</v>
       </c>
       <c r="P35" t="n">
-        <v>306.5450239699825</v>
+        <v>110.1087380584011</v>
       </c>
       <c r="Q35" t="n">
-        <v>230.2025466206896</v>
+        <v>82.68707669094779</v>
       </c>
       <c r="R35" t="n">
-        <v>133.9071034636654</v>
+        <v>48.09845545195912</v>
       </c>
       <c r="S35" t="n">
-        <v>48.57673166064953</v>
+        <v>17.44840791374077</v>
       </c>
       <c r="T35" t="n">
-        <v>9.331635451211989</v>
+        <v>3.351855431372471</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.06125606727808051</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.140574560338541</v>
+        <v>0.4096860678863609</v>
       </c>
       <c r="H36" t="n">
-        <v>11.0155490432696</v>
+        <v>3.956704918797223</v>
       </c>
       <c r="I36" t="n">
-        <v>39.26978201165591</v>
+        <v>14.10541944257865</v>
       </c>
       <c r="J36" t="n">
-        <v>107.7592833519847</v>
+        <v>38.70634907166711</v>
       </c>
       <c r="K36" t="n">
-        <v>184.177778894667</v>
+        <v>66.15531562005329</v>
       </c>
       <c r="L36" t="n">
-        <v>225.1508671422956</v>
+        <v>88.9539859241855</v>
       </c>
       <c r="M36" t="n">
-        <v>230.9678051232798</v>
+        <v>103.8051058850661</v>
       </c>
       <c r="N36" t="n">
-        <v>213.4302821354166</v>
+        <v>106.552518156111</v>
       </c>
       <c r="O36" t="n">
-        <v>231.7188972222222</v>
+        <v>97.47473738873428</v>
       </c>
       <c r="P36" t="n">
-        <v>217.7084120482866</v>
+        <v>78.23207027910694</v>
       </c>
       <c r="Q36" t="n">
-        <v>145.5933421232145</v>
+        <v>52.29606719195021</v>
       </c>
       <c r="R36" t="n">
-        <v>70.81567314101927</v>
+        <v>25.43647358333038</v>
       </c>
       <c r="S36" t="n">
-        <v>21.18567220628824</v>
+        <v>7.609739024117268</v>
       </c>
       <c r="T36" t="n">
-        <v>4.597315881364556</v>
+        <v>1.651322352577042</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.02695303078199743</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.3434670370689507</v>
       </c>
       <c r="H37" t="n">
-        <v>8.50165972973655</v>
+        <v>3.053734202303946</v>
       </c>
       <c r="I37" t="n">
-        <v>28.75612513902709</v>
+        <v>10.32899053294627</v>
       </c>
       <c r="J37" t="n">
-        <v>67.60471136826288</v>
+        <v>24.28311952077481</v>
       </c>
       <c r="K37" t="n">
-        <v>111.0953081247781</v>
+        <v>39.90462485219263</v>
       </c>
       <c r="L37" t="n">
-        <v>142.1637456238359</v>
+        <v>51.06418112932383</v>
       </c>
       <c r="M37" t="n">
-        <v>149.8917369323591</v>
+        <v>53.84001927436288</v>
       </c>
       <c r="N37" t="n">
-        <v>146.3276464526128</v>
+        <v>52.55982395437865</v>
       </c>
       <c r="O37" t="n">
-        <v>135.157265314871</v>
+        <v>48.54750447589134</v>
       </c>
       <c r="P37" t="n">
-        <v>115.6503896159662</v>
+        <v>41.54077691968472</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.07033514376617</v>
+        <v>28.76068071311005</v>
       </c>
       <c r="R37" t="n">
-        <v>42.99510125079442</v>
+        <v>15.44352695766391</v>
       </c>
       <c r="S37" t="n">
-        <v>16.66429621871672</v>
+        <v>5.985693727828894</v>
       </c>
       <c r="T37" t="n">
-        <v>4.085664696294657</v>
+        <v>1.467540976567335</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.01873456565830642</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.131727116210619</v>
+        <v>0.7657008409760067</v>
       </c>
       <c r="H38" t="n">
-        <v>21.83155032889201</v>
+        <v>7.84173373764553</v>
       </c>
       <c r="I38" t="n">
-        <v>82.18340964770998</v>
+        <v>29.51968167172752</v>
       </c>
       <c r="J38" t="n">
-        <v>180.9276743294812</v>
+        <v>64.9879017517874</v>
       </c>
       <c r="K38" t="n">
-        <v>271.1636831586767</v>
+        <v>97.40001835030178</v>
       </c>
       <c r="L38" t="n">
-        <v>336.4025268914075</v>
+        <v>120.8333354623213</v>
       </c>
       <c r="M38" t="n">
-        <v>374.3126289943181</v>
+        <v>134.4503677930283</v>
       </c>
       <c r="N38" t="n">
-        <v>372.7962283444602</v>
+        <v>136.6259153074514</v>
       </c>
       <c r="O38" t="n">
-        <v>359.1720371514322</v>
+        <v>129.0119775699962</v>
       </c>
       <c r="P38" t="n">
-        <v>306.5450239699825</v>
+        <v>110.1087380584011</v>
       </c>
       <c r="Q38" t="n">
-        <v>230.2025466206896</v>
+        <v>82.68707669094779</v>
       </c>
       <c r="R38" t="n">
-        <v>133.9071034636654</v>
+        <v>48.09845545195912</v>
       </c>
       <c r="S38" t="n">
-        <v>48.57673166064953</v>
+        <v>17.44840791374077</v>
       </c>
       <c r="T38" t="n">
-        <v>9.331635451211989</v>
+        <v>3.351855431372471</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.06125606727808051</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.140574560338541</v>
+        <v>0.4096860678863609</v>
       </c>
       <c r="H39" t="n">
-        <v>11.0155490432696</v>
+        <v>3.956704918797223</v>
       </c>
       <c r="I39" t="n">
-        <v>39.26978201165591</v>
+        <v>14.10541944257865</v>
       </c>
       <c r="J39" t="n">
-        <v>107.7592833519847</v>
+        <v>38.70634907166711</v>
       </c>
       <c r="K39" t="n">
-        <v>184.177778894667</v>
+        <v>66.15531562005329</v>
       </c>
       <c r="L39" t="n">
-        <v>225.1508671422956</v>
+        <v>88.9539859241855</v>
       </c>
       <c r="M39" t="n">
-        <v>230.9678051232798</v>
+        <v>103.8051058850661</v>
       </c>
       <c r="N39" t="n">
-        <v>213.4302821354166</v>
+        <v>106.552518156111</v>
       </c>
       <c r="O39" t="n">
-        <v>231.7188972222222</v>
+        <v>97.47473738873428</v>
       </c>
       <c r="P39" t="n">
-        <v>217.7084120482866</v>
+        <v>78.23207027910694</v>
       </c>
       <c r="Q39" t="n">
-        <v>145.5933421232145</v>
+        <v>52.29606719195021</v>
       </c>
       <c r="R39" t="n">
-        <v>70.81567314101927</v>
+        <v>25.43647358333038</v>
       </c>
       <c r="S39" t="n">
-        <v>21.18567220628824</v>
+        <v>7.609739024117268</v>
       </c>
       <c r="T39" t="n">
-        <v>4.597315881364556</v>
+        <v>1.651322352577042</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.02695303078199743</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.3434670370689507</v>
       </c>
       <c r="H40" t="n">
-        <v>8.50165972973655</v>
+        <v>3.053734202303946</v>
       </c>
       <c r="I40" t="n">
-        <v>28.75612513902709</v>
+        <v>10.32899053294627</v>
       </c>
       <c r="J40" t="n">
-        <v>67.60471136826288</v>
+        <v>24.28311952077481</v>
       </c>
       <c r="K40" t="n">
-        <v>111.0953081247781</v>
+        <v>39.90462485219263</v>
       </c>
       <c r="L40" t="n">
-        <v>142.1637456238359</v>
+        <v>51.06418112932383</v>
       </c>
       <c r="M40" t="n">
-        <v>149.8917369323591</v>
+        <v>53.84001927436288</v>
       </c>
       <c r="N40" t="n">
-        <v>146.3276464526128</v>
+        <v>52.55982395437865</v>
       </c>
       <c r="O40" t="n">
-        <v>135.157265314871</v>
+        <v>48.54750447589134</v>
       </c>
       <c r="P40" t="n">
-        <v>115.6503896159662</v>
+        <v>41.54077691968472</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.07033514376617</v>
+        <v>28.76068071311005</v>
       </c>
       <c r="R40" t="n">
-        <v>42.99510125079442</v>
+        <v>15.44352695766391</v>
       </c>
       <c r="S40" t="n">
-        <v>16.66429621871672</v>
+        <v>5.985693727828894</v>
       </c>
       <c r="T40" t="n">
-        <v>4.085664696294657</v>
+        <v>1.467540976567335</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.01873456565830642</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.131727116210619</v>
+        <v>0.7657008409760067</v>
       </c>
       <c r="H41" t="n">
-        <v>21.83155032889201</v>
+        <v>7.84173373764553</v>
       </c>
       <c r="I41" t="n">
-        <v>82.18340964770998</v>
+        <v>29.51968167172752</v>
       </c>
       <c r="J41" t="n">
-        <v>180.9276743294812</v>
+        <v>64.9879017517874</v>
       </c>
       <c r="K41" t="n">
-        <v>271.1636831586767</v>
+        <v>97.40001835030178</v>
       </c>
       <c r="L41" t="n">
-        <v>336.4025268914075</v>
+        <v>120.8333354623213</v>
       </c>
       <c r="M41" t="n">
-        <v>374.3126289943181</v>
+        <v>134.4503677930283</v>
       </c>
       <c r="N41" t="n">
-        <v>372.7962283444602</v>
+        <v>136.6259153074514</v>
       </c>
       <c r="O41" t="n">
-        <v>359.1720371514322</v>
+        <v>129.0119775699962</v>
       </c>
       <c r="P41" t="n">
-        <v>306.5450239699825</v>
+        <v>110.1087380584011</v>
       </c>
       <c r="Q41" t="n">
-        <v>230.2025466206896</v>
+        <v>82.68707669094779</v>
       </c>
       <c r="R41" t="n">
-        <v>133.9071034636654</v>
+        <v>48.09845545195912</v>
       </c>
       <c r="S41" t="n">
-        <v>48.57673166064953</v>
+        <v>17.44840791374077</v>
       </c>
       <c r="T41" t="n">
-        <v>9.331635451211989</v>
+        <v>3.351855431372471</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.06125606727808051</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.140574560338541</v>
+        <v>0.4096860678863609</v>
       </c>
       <c r="H42" t="n">
-        <v>11.0155490432696</v>
+        <v>3.956704918797223</v>
       </c>
       <c r="I42" t="n">
-        <v>39.26978201165591</v>
+        <v>14.10541944257865</v>
       </c>
       <c r="J42" t="n">
-        <v>107.7592833519847</v>
+        <v>38.70634907166711</v>
       </c>
       <c r="K42" t="n">
-        <v>184.177778894667</v>
+        <v>66.15531562005329</v>
       </c>
       <c r="L42" t="n">
-        <v>225.1508671422956</v>
+        <v>88.9539859241855</v>
       </c>
       <c r="M42" t="n">
-        <v>230.9678051232798</v>
+        <v>103.8051058850661</v>
       </c>
       <c r="N42" t="n">
-        <v>213.4302821354166</v>
+        <v>106.552518156111</v>
       </c>
       <c r="O42" t="n">
-        <v>231.7188972222222</v>
+        <v>97.47473738873428</v>
       </c>
       <c r="P42" t="n">
-        <v>217.7084120482866</v>
+        <v>78.23207027910694</v>
       </c>
       <c r="Q42" t="n">
-        <v>145.5933421232145</v>
+        <v>52.29606719195021</v>
       </c>
       <c r="R42" t="n">
-        <v>70.81567314101927</v>
+        <v>25.43647358333038</v>
       </c>
       <c r="S42" t="n">
-        <v>21.18567220628824</v>
+        <v>7.609739024117268</v>
       </c>
       <c r="T42" t="n">
-        <v>4.597315881364556</v>
+        <v>1.651322352577042</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.02695303078199743</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.3434670370689507</v>
       </c>
       <c r="H43" t="n">
-        <v>8.50165972973655</v>
+        <v>3.053734202303946</v>
       </c>
       <c r="I43" t="n">
-        <v>28.75612513902709</v>
+        <v>10.32899053294627</v>
       </c>
       <c r="J43" t="n">
-        <v>67.60471136826288</v>
+        <v>24.28311952077481</v>
       </c>
       <c r="K43" t="n">
-        <v>111.0953081247781</v>
+        <v>39.90462485219263</v>
       </c>
       <c r="L43" t="n">
-        <v>142.1637456238359</v>
+        <v>51.06418112932383</v>
       </c>
       <c r="M43" t="n">
-        <v>149.8917369323591</v>
+        <v>53.84001927436288</v>
       </c>
       <c r="N43" t="n">
-        <v>146.3276464526128</v>
+        <v>52.55982395437865</v>
       </c>
       <c r="O43" t="n">
-        <v>135.157265314871</v>
+        <v>48.54750447589134</v>
       </c>
       <c r="P43" t="n">
-        <v>115.6503896159662</v>
+        <v>41.54077691968472</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.07033514376617</v>
+        <v>28.76068071311005</v>
       </c>
       <c r="R43" t="n">
-        <v>42.99510125079442</v>
+        <v>15.44352695766391</v>
       </c>
       <c r="S43" t="n">
-        <v>16.66429621871672</v>
+        <v>5.985693727828894</v>
       </c>
       <c r="T43" t="n">
-        <v>4.085664696294657</v>
+        <v>1.467540976567335</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.01873456565830642</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.131727116210619</v>
+        <v>0.7657008409760067</v>
       </c>
       <c r="H44" t="n">
-        <v>21.83155032889201</v>
+        <v>7.84173373764553</v>
       </c>
       <c r="I44" t="n">
-        <v>82.18340964770998</v>
+        <v>29.51968167172752</v>
       </c>
       <c r="J44" t="n">
-        <v>180.9276743294812</v>
+        <v>64.9879017517874</v>
       </c>
       <c r="K44" t="n">
-        <v>271.1636831586767</v>
+        <v>97.40001835030178</v>
       </c>
       <c r="L44" t="n">
-        <v>336.4025268914075</v>
+        <v>120.8333354623213</v>
       </c>
       <c r="M44" t="n">
-        <v>374.3126289943182</v>
+        <v>134.4503677930283</v>
       </c>
       <c r="N44" t="n">
-        <v>372.7962283444602</v>
+        <v>136.6259153074514</v>
       </c>
       <c r="O44" t="n">
-        <v>359.1720371514322</v>
+        <v>129.0119775699962</v>
       </c>
       <c r="P44" t="n">
-        <v>306.5450239699825</v>
+        <v>110.1087380584011</v>
       </c>
       <c r="Q44" t="n">
-        <v>230.2025466206896</v>
+        <v>82.68707669094779</v>
       </c>
       <c r="R44" t="n">
-        <v>133.9071034636654</v>
+        <v>48.09845545195912</v>
       </c>
       <c r="S44" t="n">
-        <v>48.57673166064953</v>
+        <v>17.44840791374077</v>
       </c>
       <c r="T44" t="n">
-        <v>9.331635451211989</v>
+        <v>3.351855431372471</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.06125606727808051</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.140574560338541</v>
+        <v>0.4096860678863609</v>
       </c>
       <c r="H45" t="n">
-        <v>11.0155490432696</v>
+        <v>3.956704918797223</v>
       </c>
       <c r="I45" t="n">
-        <v>39.26978201165591</v>
+        <v>14.10541944257865</v>
       </c>
       <c r="J45" t="n">
-        <v>107.7592833519847</v>
+        <v>38.70634907166711</v>
       </c>
       <c r="K45" t="n">
-        <v>184.177778894667</v>
+        <v>66.15531562005329</v>
       </c>
       <c r="L45" t="n">
-        <v>225.1508671422956</v>
+        <v>88.9539859241855</v>
       </c>
       <c r="M45" t="n">
-        <v>230.9678051232798</v>
+        <v>103.8051058850661</v>
       </c>
       <c r="N45" t="n">
-        <v>213.4302821354166</v>
+        <v>106.552518156111</v>
       </c>
       <c r="O45" t="n">
-        <v>231.7188972222222</v>
+        <v>97.47473738873428</v>
       </c>
       <c r="P45" t="n">
-        <v>217.7084120482866</v>
+        <v>78.23207027910694</v>
       </c>
       <c r="Q45" t="n">
-        <v>145.5933421232145</v>
+        <v>52.29606719195021</v>
       </c>
       <c r="R45" t="n">
-        <v>70.81567314101927</v>
+        <v>25.43647358333038</v>
       </c>
       <c r="S45" t="n">
-        <v>21.18567220628824</v>
+        <v>7.609739024117268</v>
       </c>
       <c r="T45" t="n">
-        <v>4.597315881364556</v>
+        <v>1.651322352577042</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.02695303078199743</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.3434670370689507</v>
       </c>
       <c r="H46" t="n">
-        <v>8.50165972973655</v>
+        <v>3.053734202303946</v>
       </c>
       <c r="I46" t="n">
-        <v>28.75612513902709</v>
+        <v>10.32899053294627</v>
       </c>
       <c r="J46" t="n">
-        <v>67.60471136826288</v>
+        <v>24.28311952077481</v>
       </c>
       <c r="K46" t="n">
-        <v>111.0953081247781</v>
+        <v>39.90462485219263</v>
       </c>
       <c r="L46" t="n">
-        <v>142.1637456238359</v>
+        <v>51.06418112932383</v>
       </c>
       <c r="M46" t="n">
-        <v>149.8917369323591</v>
+        <v>53.84001927436288</v>
       </c>
       <c r="N46" t="n">
-        <v>146.3276464526128</v>
+        <v>52.55982395437865</v>
       </c>
       <c r="O46" t="n">
-        <v>135.157265314871</v>
+        <v>48.54750447589134</v>
       </c>
       <c r="P46" t="n">
-        <v>115.6503896159662</v>
+        <v>41.54077691968472</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.07033514376617</v>
+        <v>28.76068071311005</v>
       </c>
       <c r="R46" t="n">
-        <v>42.99510125079442</v>
+        <v>15.44352695766391</v>
       </c>
       <c r="S46" t="n">
-        <v>16.66429621871672</v>
+        <v>5.985693727828894</v>
       </c>
       <c r="T46" t="n">
-        <v>4.085664696294657</v>
+        <v>1.467540976567335</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.01873456565830642</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
